--- a/Shablon/MSO-X6004A.xlsx
+++ b/Shablon/MSO-X6004A.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="681">
   <si>
     <t>Установленый коэффицент отклонения, мВ/дел</t>
   </si>
@@ -3026,15 +3026,24 @@
   <si>
     <t>odcv4-7</t>
   </si>
+  <si>
+    <t>_temp</t>
+  </si>
+  <si>
+    <t>_hum</t>
+  </si>
+  <si>
+    <t>_pres</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -3265,7 +3274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3334,7 +3343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3381,11 +3390,40 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3393,7 +3431,19 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3401,49 +3451,49 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -3458,58 +3508,20 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3817,8 +3829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3838,23 +3850,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="2" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
@@ -3874,23 +3886,23 @@
       <c r="O2" s="4"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="51"/>
-      <c r="N3" s="51"/>
-      <c r="O3" s="51"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
@@ -3948,23 +3960,23 @@
       <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="66"/>
+      <c r="M7" s="66"/>
+      <c r="N7" s="66"/>
+      <c r="O7" s="66"/>
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -4020,20 +4032,20 @@
       <c r="O10" s="4"/>
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="37" t="s">
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="33" t="s">
+      <c r="F11" s="52"/>
+      <c r="G11" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="H11" s="33"/>
+      <c r="H11" s="47"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -4042,17 +4054,17 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="45" t="s">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="43">
-        <v>21.4</v>
-      </c>
-      <c r="F12" s="43"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="70" t="s">
+        <v>678</v>
+      </c>
+      <c r="F12" s="70"/>
       <c r="G12" s="42" t="s">
         <v>54</v>
       </c>
@@ -4065,17 +4077,17 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="45" t="s">
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="43">
-        <v>50.8</v>
-      </c>
-      <c r="F13" s="43"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="70" t="s">
+        <v>679</v>
+      </c>
+      <c r="F13" s="70"/>
       <c r="G13" s="42" t="s">
         <v>55</v>
       </c>
@@ -4088,17 +4100,17 @@
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="43">
-        <v>99.7</v>
-      </c>
-      <c r="F14" s="43"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="70" t="s">
+        <v>680</v>
+      </c>
+      <c r="F14" s="70"/>
       <c r="G14" s="42" t="s">
         <v>56</v>
       </c>
@@ -4112,16 +4124,16 @@
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="43">
-        <v>220.3</v>
-      </c>
-      <c r="F15" s="43"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="54">
+        <v>220.1</v>
+      </c>
+      <c r="F15" s="54"/>
       <c r="G15" s="42" t="s">
         <v>58</v>
       </c>
@@ -4135,16 +4147,16 @@
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="46">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="69">
         <v>50</v>
       </c>
-      <c r="F16" s="46"/>
+      <c r="F16" s="69"/>
       <c r="G16" s="42" t="s">
         <v>60</v>
       </c>
@@ -4175,23 +4187,23 @@
       <c r="O17" s="4"/>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="67" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="67"/>
       <c r="P18" s="3"/>
     </row>
     <row r="19" spans="1:16" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4392,15 +4404,15 @@
       <c r="O29" s="18"/>
     </row>
     <row r="30" spans="1:16" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="33"/>
+      <c r="E30" s="47"/>
       <c r="F30" s="42" t="s">
         <v>63</v>
       </c>
@@ -4415,11 +4427,11 @@
       <c r="O30" s="18"/>
     </row>
     <row r="31" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="A31" s="47"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
@@ -4432,11 +4444,11 @@
       <c r="O31" s="18"/>
     </row>
     <row r="32" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
       <c r="F32" s="42" t="s">
         <v>64</v>
       </c>
@@ -4462,26 +4474,26 @@
       </c>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
-      <c r="D33" s="44" t="s">
+      <c r="D33" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="69" t="s">
+      <c r="E33" s="68"/>
+      <c r="F33" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69" t="s">
+      <c r="G33" s="59"/>
+      <c r="H33" s="59" t="s">
         <v>103</v>
       </c>
-      <c r="I33" s="69"/>
-      <c r="J33" s="69" t="s">
+      <c r="I33" s="59"/>
+      <c r="J33" s="59" t="s">
         <v>104</v>
       </c>
-      <c r="K33" s="69"/>
-      <c r="L33" s="69" t="s">
+      <c r="K33" s="59"/>
+      <c r="L33" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="M33" s="69"/>
+      <c r="M33" s="59"/>
       <c r="N33" s="18"/>
       <c r="O33" s="18"/>
     </row>
@@ -4491,26 +4503,26 @@
       </c>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
-      <c r="D34" s="44" t="s">
+      <c r="D34" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="44"/>
-      <c r="F34" s="69" t="s">
+      <c r="E34" s="68"/>
+      <c r="F34" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69" t="s">
+      <c r="G34" s="59"/>
+      <c r="H34" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69" t="s">
+      <c r="I34" s="59"/>
+      <c r="J34" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69" t="s">
+      <c r="K34" s="59"/>
+      <c r="L34" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="M34" s="69"/>
+      <c r="M34" s="59"/>
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
     </row>
@@ -4520,26 +4532,26 @@
       </c>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="44"/>
-      <c r="F35" s="69" t="s">
+      <c r="E35" s="68"/>
+      <c r="F35" s="59" t="s">
         <v>110</v>
       </c>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69" t="s">
+      <c r="G35" s="59"/>
+      <c r="H35" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="I35" s="69"/>
-      <c r="J35" s="69" t="s">
+      <c r="I35" s="59"/>
+      <c r="J35" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="K35" s="69"/>
-      <c r="L35" s="69" t="s">
+      <c r="K35" s="59"/>
+      <c r="L35" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="M35" s="69"/>
+      <c r="M35" s="59"/>
       <c r="N35" s="18"/>
       <c r="O35" s="18"/>
     </row>
@@ -4549,26 +4561,26 @@
       </c>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
-      <c r="D36" s="44" t="s">
+      <c r="D36" s="68" t="s">
         <v>29</v>
       </c>
-      <c r="E36" s="44"/>
-      <c r="F36" s="69" t="s">
+      <c r="E36" s="68"/>
+      <c r="F36" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69" t="s">
+      <c r="G36" s="59"/>
+      <c r="H36" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="I36" s="69"/>
-      <c r="J36" s="69" t="s">
+      <c r="I36" s="59"/>
+      <c r="J36" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69" t="s">
+      <c r="K36" s="59"/>
+      <c r="L36" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="M36" s="69"/>
+      <c r="M36" s="59"/>
       <c r="N36" s="18"/>
       <c r="O36" s="18"/>
     </row>
@@ -4578,26 +4590,26 @@
       </c>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
-      <c r="D37" s="44" t="s">
+      <c r="D37" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="E37" s="44"/>
-      <c r="F37" s="69" t="s">
+      <c r="E37" s="68"/>
+      <c r="F37" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69" t="s">
+      <c r="G37" s="59"/>
+      <c r="H37" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69" t="s">
+      <c r="I37" s="59"/>
+      <c r="J37" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="K37" s="69"/>
-      <c r="L37" s="69" t="s">
+      <c r="K37" s="59"/>
+      <c r="L37" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="M37" s="69"/>
+      <c r="M37" s="59"/>
       <c r="N37" s="18"/>
       <c r="O37" s="18"/>
     </row>
@@ -4607,26 +4619,26 @@
       </c>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
-      <c r="D38" s="44" t="s">
+      <c r="D38" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="44"/>
-      <c r="F38" s="69" t="s">
+      <c r="E38" s="68"/>
+      <c r="F38" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69" t="s">
+      <c r="G38" s="59"/>
+      <c r="H38" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="I38" s="69"/>
-      <c r="J38" s="69" t="s">
+      <c r="I38" s="59"/>
+      <c r="J38" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="K38" s="69"/>
-      <c r="L38" s="69" t="s">
+      <c r="K38" s="59"/>
+      <c r="L38" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="M38" s="69"/>
+      <c r="M38" s="59"/>
       <c r="N38" s="18"/>
       <c r="O38" s="18"/>
     </row>
@@ -4636,26 +4648,26 @@
       </c>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="44"/>
-      <c r="F39" s="69" t="s">
+      <c r="E39" s="68"/>
+      <c r="F39" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69" t="s">
+      <c r="G39" s="59"/>
+      <c r="H39" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="I39" s="69"/>
-      <c r="J39" s="69" t="s">
+      <c r="I39" s="59"/>
+      <c r="J39" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="K39" s="69"/>
-      <c r="L39" s="69" t="s">
+      <c r="K39" s="59"/>
+      <c r="L39" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="M39" s="69"/>
+      <c r="M39" s="59"/>
       <c r="N39" s="18"/>
       <c r="O39" s="18"/>
     </row>
@@ -4665,26 +4677,26 @@
       </c>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
-      <c r="D40" s="44" t="s">
+      <c r="D40" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="44"/>
-      <c r="F40" s="69" t="s">
+      <c r="E40" s="68"/>
+      <c r="F40" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69" t="s">
+      <c r="G40" s="59"/>
+      <c r="H40" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69" t="s">
+      <c r="I40" s="59"/>
+      <c r="J40" s="59" t="s">
         <v>132</v>
       </c>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69" t="s">
+      <c r="K40" s="59"/>
+      <c r="L40" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="M40" s="69"/>
+      <c r="M40" s="59"/>
       <c r="N40" s="18"/>
       <c r="O40" s="18"/>
     </row>
@@ -4742,94 +4754,94 @@
       <c r="O43" s="18"/>
     </row>
     <row r="44" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="33" t="s">
+      <c r="A44" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33" t="s">
+      <c r="B44" s="47"/>
+      <c r="C44" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="33" t="s">
+      <c r="E44" s="47"/>
+      <c r="F44" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="G44" s="33"/>
-      <c r="H44" s="33" t="s">
+      <c r="G44" s="47"/>
+      <c r="H44" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I44" s="33" t="s">
+      <c r="I44" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33" t="s">
+      <c r="J44" s="47"/>
+      <c r="K44" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33" t="s">
+      <c r="L44" s="47"/>
+      <c r="M44" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="33" t="s">
+      <c r="N44" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="O44" s="54" t="s">
+      <c r="O44" s="55" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="33"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="33"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
+      <c r="A45" s="47"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="47"/>
+      <c r="D45" s="47"/>
+      <c r="E45" s="47"/>
+      <c r="F45" s="47"/>
+      <c r="G45" s="47"/>
+      <c r="H45" s="47"/>
+      <c r="I45" s="47"/>
+      <c r="J45" s="47"/>
+      <c r="K45" s="47"/>
+      <c r="L45" s="47"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="47"/>
+      <c r="O45" s="47"/>
     </row>
     <row r="46" spans="1:15" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="47"/>
+      <c r="G46" s="47"/>
+      <c r="H46" s="47"/>
+      <c r="I46" s="47"/>
+      <c r="J46" s="47"/>
+      <c r="K46" s="47"/>
+      <c r="L46" s="47"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="47"/>
+      <c r="O46" s="47"/>
     </row>
     <row r="47" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="38"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="38"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="39"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="52"/>
     </row>
     <row r="48" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="42">
@@ -4839,25 +4851,25 @@
       <c r="C48" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="43" t="s">
+      <c r="D48" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="E48" s="43"/>
-      <c r="F48" s="43" t="s">
+      <c r="E48" s="54"/>
+      <c r="F48" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="G48" s="43"/>
+      <c r="G48" s="54"/>
       <c r="H48" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="I48" s="43" t="s">
+      <c r="I48" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="J48" s="43"/>
-      <c r="K48" s="43" t="s">
+      <c r="J48" s="54"/>
+      <c r="K48" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="L48" s="43"/>
+      <c r="L48" s="54"/>
       <c r="M48" s="31" t="s">
         <v>139</v>
       </c>
@@ -4877,25 +4889,25 @@
       <c r="C49" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="43" t="s">
+      <c r="D49" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43" t="s">
+      <c r="E49" s="54"/>
+      <c r="F49" s="54" t="s">
         <v>151</v>
       </c>
-      <c r="G49" s="43"/>
+      <c r="G49" s="54"/>
       <c r="H49" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="I49" s="43" t="s">
+      <c r="I49" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="J49" s="43"/>
-      <c r="K49" s="43" t="s">
+      <c r="J49" s="54"/>
+      <c r="K49" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="L49" s="43"/>
+      <c r="L49" s="54"/>
       <c r="M49" s="31" t="s">
         <v>195</v>
       </c>
@@ -4913,25 +4925,25 @@
       <c r="C50" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="54" t="s">
         <v>141</v>
       </c>
-      <c r="E50" s="43"/>
-      <c r="F50" s="43" t="s">
+      <c r="E50" s="54"/>
+      <c r="F50" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="G50" s="43"/>
+      <c r="G50" s="54"/>
       <c r="H50" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="I50" s="43" t="s">
+      <c r="I50" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="J50" s="43"/>
-      <c r="K50" s="43" t="s">
+      <c r="J50" s="54"/>
+      <c r="K50" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="L50" s="43"/>
+      <c r="L50" s="54"/>
       <c r="M50" s="31" t="s">
         <v>196</v>
       </c>
@@ -4949,25 +4961,25 @@
       <c r="C51" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D51" s="43" t="s">
+      <c r="D51" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43" t="s">
+      <c r="E51" s="54"/>
+      <c r="F51" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="G51" s="43"/>
+      <c r="G51" s="54"/>
       <c r="H51" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="I51" s="43" t="s">
+      <c r="I51" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43" t="s">
+      <c r="J51" s="54"/>
+      <c r="K51" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="L51" s="43"/>
+      <c r="L51" s="54"/>
       <c r="M51" s="31" t="s">
         <v>197</v>
       </c>
@@ -4985,25 +4997,25 @@
       <c r="C52" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="43" t="s">
+      <c r="D52" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43" t="s">
+      <c r="E52" s="54"/>
+      <c r="F52" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="G52" s="43"/>
+      <c r="G52" s="54"/>
       <c r="H52" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="I52" s="43" t="s">
+      <c r="I52" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43" t="s">
+      <c r="J52" s="54"/>
+      <c r="K52" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="L52" s="43"/>
+      <c r="L52" s="54"/>
       <c r="M52" s="31" t="s">
         <v>198</v>
       </c>
@@ -5021,25 +5033,25 @@
       <c r="C53" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D53" s="43" t="s">
+      <c r="D53" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43" t="s">
+      <c r="E53" s="54"/>
+      <c r="F53" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="G53" s="43"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="I53" s="43" t="s">
+      <c r="I53" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43" t="s">
+      <c r="J53" s="54"/>
+      <c r="K53" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="L53" s="43"/>
+      <c r="L53" s="54"/>
       <c r="M53" s="31" t="s">
         <v>199</v>
       </c>
@@ -5057,25 +5069,25 @@
       <c r="C54" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D54" s="43" t="s">
+      <c r="D54" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43" t="s">
+      <c r="E54" s="54"/>
+      <c r="F54" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="G54" s="43"/>
+      <c r="G54" s="54"/>
       <c r="H54" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="I54" s="43" t="s">
+      <c r="I54" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43" t="s">
+      <c r="J54" s="54"/>
+      <c r="K54" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="L54" s="43"/>
+      <c r="L54" s="54"/>
       <c r="M54" s="31" t="s">
         <v>200</v>
       </c>
@@ -5093,25 +5105,25 @@
       <c r="C55" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="43" t="s">
+      <c r="D55" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="E55" s="43"/>
-      <c r="F55" s="43" t="s">
+      <c r="E55" s="54"/>
+      <c r="F55" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="G55" s="43"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="I55" s="43" t="s">
+      <c r="I55" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="J55" s="43"/>
-      <c r="K55" s="43" t="s">
+      <c r="J55" s="54"/>
+      <c r="K55" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="L55" s="43"/>
+      <c r="L55" s="54"/>
       <c r="M55" s="31" t="s">
         <v>201</v>
       </c>
@@ -5129,25 +5141,25 @@
       <c r="C56" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D56" s="43" t="s">
+      <c r="D56" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="E56" s="43"/>
-      <c r="F56" s="43" t="s">
+      <c r="E56" s="54"/>
+      <c r="F56" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="G56" s="43"/>
+      <c r="G56" s="54"/>
       <c r="H56" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="I56" s="43" t="s">
+      <c r="I56" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="J56" s="43"/>
-      <c r="K56" s="43" t="s">
+      <c r="J56" s="54"/>
+      <c r="K56" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="L56" s="43"/>
+      <c r="L56" s="54"/>
       <c r="M56" s="31" t="s">
         <v>202</v>
       </c>
@@ -5165,25 +5177,25 @@
       <c r="C57" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="43" t="s">
+      <c r="D57" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="E57" s="43"/>
-      <c r="F57" s="43" t="s">
+      <c r="E57" s="54"/>
+      <c r="F57" s="54" t="s">
         <v>159</v>
       </c>
-      <c r="G57" s="43"/>
+      <c r="G57" s="54"/>
       <c r="H57" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="I57" s="43" t="s">
+      <c r="I57" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="J57" s="43"/>
-      <c r="K57" s="43" t="s">
+      <c r="J57" s="54"/>
+      <c r="K57" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="L57" s="43"/>
+      <c r="L57" s="54"/>
       <c r="M57" s="31" t="s">
         <v>203</v>
       </c>
@@ -5201,25 +5213,25 @@
       <c r="C58" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D58" s="43" t="s">
+      <c r="D58" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="E58" s="43"/>
-      <c r="F58" s="43" t="s">
+      <c r="E58" s="54"/>
+      <c r="F58" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="G58" s="43"/>
+      <c r="G58" s="54"/>
       <c r="H58" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="I58" s="43" t="s">
+      <c r="I58" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="J58" s="43"/>
-      <c r="K58" s="43" t="s">
+      <c r="J58" s="54"/>
+      <c r="K58" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="L58" s="43"/>
+      <c r="L58" s="54"/>
       <c r="M58" s="31" t="s">
         <v>204</v>
       </c>
@@ -5237,25 +5249,25 @@
       <c r="C59" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="43" t="s">
+      <c r="D59" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="E59" s="43"/>
-      <c r="F59" s="43" t="s">
+      <c r="E59" s="54"/>
+      <c r="F59" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="G59" s="43"/>
+      <c r="G59" s="54"/>
       <c r="H59" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="I59" s="43" t="s">
+      <c r="I59" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="J59" s="43"/>
-      <c r="K59" s="43" t="s">
+      <c r="J59" s="54"/>
+      <c r="K59" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="L59" s="43"/>
+      <c r="L59" s="54"/>
       <c r="M59" s="31" t="s">
         <v>205</v>
       </c>
@@ -5266,23 +5278,23 @@
       <c r="O59" s="42"/>
     </row>
     <row r="60" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
-      <c r="K60" s="38"/>
-      <c r="L60" s="38"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="39"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="60"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="52"/>
     </row>
     <row r="61" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="42">
@@ -5292,25 +5304,25 @@
       <c r="C61" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="43" t="s">
+      <c r="D61" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="E61" s="43"/>
-      <c r="F61" s="43" t="s">
+      <c r="E61" s="54"/>
+      <c r="F61" s="54" t="s">
         <v>207</v>
       </c>
-      <c r="G61" s="43"/>
+      <c r="G61" s="54"/>
       <c r="H61" s="31" t="s">
         <v>208</v>
       </c>
-      <c r="I61" s="43" t="s">
+      <c r="I61" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="J61" s="43"/>
-      <c r="K61" s="43" t="s">
+      <c r="J61" s="54"/>
+      <c r="K61" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="L61" s="43"/>
+      <c r="L61" s="54"/>
       <c r="M61" s="31" t="s">
         <v>211</v>
       </c>
@@ -5330,25 +5342,25 @@
       <c r="C62" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="43" t="s">
+      <c r="D62" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43" t="s">
+      <c r="E62" s="54"/>
+      <c r="F62" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="G62" s="43"/>
+      <c r="G62" s="54"/>
       <c r="H62" s="31" t="s">
         <v>234</v>
       </c>
-      <c r="I62" s="43" t="s">
+      <c r="I62" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43" t="s">
+      <c r="J62" s="54"/>
+      <c r="K62" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="L62" s="43"/>
+      <c r="L62" s="54"/>
       <c r="M62" s="31" t="s">
         <v>267</v>
       </c>
@@ -5366,25 +5378,25 @@
       <c r="C63" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D63" s="43" t="s">
+      <c r="D63" s="54" t="s">
         <v>213</v>
       </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43" t="s">
+      <c r="E63" s="54"/>
+      <c r="F63" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="G63" s="43"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="31" t="s">
         <v>235</v>
       </c>
-      <c r="I63" s="43" t="s">
+      <c r="I63" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="J63" s="43"/>
-      <c r="K63" s="43" t="s">
+      <c r="J63" s="54"/>
+      <c r="K63" s="54" t="s">
         <v>257</v>
       </c>
-      <c r="L63" s="43"/>
+      <c r="L63" s="54"/>
       <c r="M63" s="31" t="s">
         <v>268</v>
       </c>
@@ -5402,25 +5414,25 @@
       <c r="C64" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D64" s="43" t="s">
+      <c r="D64" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="E64" s="43"/>
-      <c r="F64" s="43" t="s">
+      <c r="E64" s="54"/>
+      <c r="F64" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="G64" s="43"/>
+      <c r="G64" s="54"/>
       <c r="H64" s="31" t="s">
         <v>236</v>
       </c>
-      <c r="I64" s="43" t="s">
+      <c r="I64" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="J64" s="43"/>
-      <c r="K64" s="43" t="s">
+      <c r="J64" s="54"/>
+      <c r="K64" s="54" t="s">
         <v>258</v>
       </c>
-      <c r="L64" s="43"/>
+      <c r="L64" s="54"/>
       <c r="M64" s="31" t="s">
         <v>269</v>
       </c>
@@ -5438,25 +5450,25 @@
       <c r="C65" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="E65" s="43"/>
-      <c r="F65" s="43" t="s">
+      <c r="E65" s="54"/>
+      <c r="F65" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="G65" s="43"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="31" t="s">
         <v>237</v>
       </c>
-      <c r="I65" s="43" t="s">
+      <c r="I65" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="J65" s="43"/>
-      <c r="K65" s="43" t="s">
+      <c r="J65" s="54"/>
+      <c r="K65" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="L65" s="43"/>
+      <c r="L65" s="54"/>
       <c r="M65" s="31" t="s">
         <v>270</v>
       </c>
@@ -5474,25 +5486,25 @@
       <c r="C66" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D66" s="43" t="s">
+      <c r="D66" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="E66" s="43"/>
-      <c r="F66" s="43" t="s">
+      <c r="E66" s="54"/>
+      <c r="F66" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="G66" s="43"/>
+      <c r="G66" s="54"/>
       <c r="H66" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="I66" s="43" t="s">
+      <c r="I66" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="J66" s="43"/>
-      <c r="K66" s="43" t="s">
+      <c r="J66" s="54"/>
+      <c r="K66" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="L66" s="43"/>
+      <c r="L66" s="54"/>
       <c r="M66" s="31" t="s">
         <v>271</v>
       </c>
@@ -5510,25 +5522,25 @@
       <c r="C67" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="43" t="s">
+      <c r="D67" s="54" t="s">
         <v>217</v>
       </c>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43" t="s">
+      <c r="E67" s="54"/>
+      <c r="F67" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="G67" s="43"/>
+      <c r="G67" s="54"/>
       <c r="H67" s="31" t="s">
         <v>239</v>
       </c>
-      <c r="I67" s="43" t="s">
+      <c r="I67" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="J67" s="43"/>
-      <c r="K67" s="43" t="s">
+      <c r="J67" s="54"/>
+      <c r="K67" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="L67" s="43"/>
+      <c r="L67" s="54"/>
       <c r="M67" s="31" t="s">
         <v>272</v>
       </c>
@@ -5546,25 +5558,25 @@
       <c r="C68" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="43" t="s">
+      <c r="D68" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="E68" s="43"/>
-      <c r="F68" s="43" t="s">
+      <c r="E68" s="54"/>
+      <c r="F68" s="54" t="s">
         <v>229</v>
       </c>
-      <c r="G68" s="43"/>
+      <c r="G68" s="54"/>
       <c r="H68" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="I68" s="43" t="s">
+      <c r="I68" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="J68" s="43"/>
-      <c r="K68" s="43" t="s">
+      <c r="J68" s="54"/>
+      <c r="K68" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="L68" s="43"/>
+      <c r="L68" s="54"/>
       <c r="M68" s="31" t="s">
         <v>273</v>
       </c>
@@ -5582,25 +5594,25 @@
       <c r="C69" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D69" s="43" t="s">
+      <c r="D69" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43" t="s">
+      <c r="E69" s="54"/>
+      <c r="F69" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="G69" s="43"/>
+      <c r="G69" s="54"/>
       <c r="H69" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="I69" s="43" t="s">
+      <c r="I69" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43" t="s">
+      <c r="J69" s="54"/>
+      <c r="K69" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="L69" s="43"/>
+      <c r="L69" s="54"/>
       <c r="M69" s="31" t="s">
         <v>274</v>
       </c>
@@ -5618,25 +5630,25 @@
       <c r="C70" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43" t="s">
+      <c r="E70" s="54"/>
+      <c r="F70" s="54" t="s">
         <v>231</v>
       </c>
-      <c r="G70" s="43"/>
+      <c r="G70" s="54"/>
       <c r="H70" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="I70" s="43" t="s">
+      <c r="I70" s="54" t="s">
         <v>253</v>
       </c>
-      <c r="J70" s="43"/>
-      <c r="K70" s="43" t="s">
+      <c r="J70" s="54"/>
+      <c r="K70" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="L70" s="43"/>
+      <c r="L70" s="54"/>
       <c r="M70" s="31" t="s">
         <v>275</v>
       </c>
@@ -5654,25 +5666,25 @@
       <c r="C71" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D71" s="43" t="s">
+      <c r="D71" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="E71" s="43"/>
-      <c r="F71" s="43" t="s">
+      <c r="E71" s="54"/>
+      <c r="F71" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="G71" s="43"/>
+      <c r="G71" s="54"/>
       <c r="H71" s="31" t="s">
         <v>243</v>
       </c>
-      <c r="I71" s="43" t="s">
+      <c r="I71" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="J71" s="43"/>
-      <c r="K71" s="43" t="s">
+      <c r="J71" s="54"/>
+      <c r="K71" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="L71" s="43"/>
+      <c r="L71" s="54"/>
       <c r="M71" s="31" t="s">
         <v>276</v>
       </c>
@@ -5690,25 +5702,25 @@
       <c r="C72" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="E72" s="43"/>
-      <c r="F72" s="43" t="s">
+      <c r="E72" s="54"/>
+      <c r="F72" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="G72" s="43"/>
+      <c r="G72" s="54"/>
       <c r="H72" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="I72" s="43" t="s">
+      <c r="I72" s="54" t="s">
         <v>255</v>
       </c>
-      <c r="J72" s="43"/>
-      <c r="K72" s="43" t="s">
+      <c r="J72" s="54"/>
+      <c r="K72" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="L72" s="43"/>
+      <c r="L72" s="54"/>
       <c r="M72" s="31" t="s">
         <v>277</v>
       </c>
@@ -5719,23 +5731,23 @@
       <c r="O72" s="42"/>
     </row>
     <row r="73" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="38"/>
-      <c r="L73" s="38"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="39"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="60"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="60"/>
+      <c r="J73" s="60"/>
+      <c r="K73" s="60"/>
+      <c r="L73" s="60"/>
+      <c r="M73" s="60"/>
+      <c r="N73" s="60"/>
+      <c r="O73" s="52"/>
     </row>
     <row r="74" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="42">
@@ -5745,25 +5757,25 @@
       <c r="C74" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D74" s="43" t="s">
+      <c r="D74" s="54" t="s">
         <v>278</v>
       </c>
-      <c r="E74" s="43"/>
-      <c r="F74" s="43" t="s">
+      <c r="E74" s="54"/>
+      <c r="F74" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="G74" s="43"/>
+      <c r="G74" s="54"/>
       <c r="H74" s="31" t="s">
         <v>280</v>
       </c>
-      <c r="I74" s="43" t="s">
+      <c r="I74" s="54" t="s">
         <v>281</v>
       </c>
-      <c r="J74" s="43"/>
-      <c r="K74" s="43" t="s">
+      <c r="J74" s="54"/>
+      <c r="K74" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="L74" s="43"/>
+      <c r="L74" s="54"/>
       <c r="M74" s="31" t="s">
         <v>283</v>
       </c>
@@ -5771,7 +5783,7 @@
         <f>IF(ABS(((I74-M74)/(D74-H74)-1)*100)&gt;ABS(((K74-M74)/(F74-H74)-1)*100),((I74-M74)/(D74-H74)-1)*100,((K74-M74)/(F74-H74)-1)*100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O74" s="34" t="s">
+      <c r="O74" s="44" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5783,25 +5795,25 @@
       <c r="C75" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D75" s="43" t="s">
+      <c r="D75" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="E75" s="43"/>
-      <c r="F75" s="43" t="s">
+      <c r="E75" s="54"/>
+      <c r="F75" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="G75" s="43"/>
+      <c r="G75" s="54"/>
       <c r="H75" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="I75" s="43" t="s">
+      <c r="I75" s="54" t="s">
         <v>293</v>
       </c>
-      <c r="J75" s="43"/>
-      <c r="K75" s="43" t="s">
+      <c r="J75" s="54"/>
+      <c r="K75" s="54" t="s">
         <v>296</v>
       </c>
-      <c r="L75" s="43"/>
+      <c r="L75" s="54"/>
       <c r="M75" s="31" t="s">
         <v>299</v>
       </c>
@@ -5809,7 +5821,7 @@
         <f t="shared" ref="N75:N88" si="2">IF(ABS(((I75-M75)/(D75-H75)-1)*100)&gt;ABS(((K75-M75)/(F75-H75)-1)*100),((I75-M75)/(D75-H75)-1)*100,((K75-M75)/(F75-H75)-1)*100)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="O75" s="36"/>
+      <c r="O75" s="45"/>
     </row>
     <row r="76" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="42">
@@ -5819,25 +5831,25 @@
       <c r="C76" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D76" s="43" t="s">
+      <c r="D76" s="54" t="s">
         <v>285</v>
       </c>
-      <c r="E76" s="43"/>
-      <c r="F76" s="43" t="s">
+      <c r="E76" s="54"/>
+      <c r="F76" s="54" t="s">
         <v>288</v>
       </c>
-      <c r="G76" s="43"/>
+      <c r="G76" s="54"/>
       <c r="H76" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="I76" s="43" t="s">
+      <c r="I76" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="J76" s="43"/>
-      <c r="K76" s="43" t="s">
+      <c r="J76" s="54"/>
+      <c r="K76" s="54" t="s">
         <v>297</v>
       </c>
-      <c r="L76" s="43"/>
+      <c r="L76" s="54"/>
       <c r="M76" s="31" t="s">
         <v>300</v>
       </c>
@@ -5845,7 +5857,7 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O76" s="36"/>
+      <c r="O76" s="45"/>
     </row>
     <row r="77" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="42">
@@ -5855,25 +5867,25 @@
       <c r="C77" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D77" s="43" t="s">
+      <c r="D77" s="54" t="s">
         <v>286</v>
       </c>
-      <c r="E77" s="43"/>
-      <c r="F77" s="43" t="s">
+      <c r="E77" s="54"/>
+      <c r="F77" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="G77" s="43"/>
+      <c r="G77" s="54"/>
       <c r="H77" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="I77" s="43" t="s">
+      <c r="I77" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="J77" s="43"/>
-      <c r="K77" s="43" t="s">
+      <c r="J77" s="54"/>
+      <c r="K77" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="L77" s="43"/>
+      <c r="L77" s="54"/>
       <c r="M77" s="31" t="s">
         <v>301</v>
       </c>
@@ -5881,78 +5893,78 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O77" s="35"/>
+      <c r="O77" s="46"/>
     </row>
     <row r="78" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="33" t="s">
+      <c r="A78" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="33" t="s">
+      <c r="B78" s="47"/>
+      <c r="C78" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="E78" s="33"/>
-      <c r="F78" s="33" t="s">
+      <c r="E78" s="47"/>
+      <c r="F78" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="G78" s="33"/>
-      <c r="H78" s="33" t="s">
+      <c r="G78" s="47"/>
+      <c r="H78" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="I78" s="33" t="s">
+      <c r="I78" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="J78" s="33"/>
-      <c r="K78" s="33" t="s">
+      <c r="J78" s="47"/>
+      <c r="K78" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="L78" s="33"/>
-      <c r="M78" s="33" t="s">
+      <c r="L78" s="47"/>
+      <c r="M78" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="N78" s="33" t="s">
+      <c r="N78" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="O78" s="54" t="s">
+      <c r="O78" s="55" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="33"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="33"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33"/>
-      <c r="I79" s="33"/>
-      <c r="J79" s="33"/>
-      <c r="K79" s="33"/>
-      <c r="L79" s="33"/>
-      <c r="M79" s="33"/>
-      <c r="N79" s="33"/>
-      <c r="O79" s="33"/>
+      <c r="A79" s="47"/>
+      <c r="B79" s="47"/>
+      <c r="C79" s="47"/>
+      <c r="D79" s="47"/>
+      <c r="E79" s="47"/>
+      <c r="F79" s="47"/>
+      <c r="G79" s="47"/>
+      <c r="H79" s="47"/>
+      <c r="I79" s="47"/>
+      <c r="J79" s="47"/>
+      <c r="K79" s="47"/>
+      <c r="L79" s="47"/>
+      <c r="M79" s="47"/>
+      <c r="N79" s="47"/>
+      <c r="O79" s="47"/>
     </row>
     <row r="80" spans="1:15" s="1" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="33"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-      <c r="G80" s="33"/>
-      <c r="H80" s="33"/>
-      <c r="I80" s="33"/>
-      <c r="J80" s="33"/>
-      <c r="K80" s="33"/>
-      <c r="L80" s="33"/>
-      <c r="M80" s="33"/>
-      <c r="N80" s="33"/>
-      <c r="O80" s="33"/>
+      <c r="A80" s="47"/>
+      <c r="B80" s="47"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="47"/>
+      <c r="E80" s="47"/>
+      <c r="F80" s="47"/>
+      <c r="G80" s="47"/>
+      <c r="H80" s="47"/>
+      <c r="I80" s="47"/>
+      <c r="J80" s="47"/>
+      <c r="K80" s="47"/>
+      <c r="L80" s="47"/>
+      <c r="M80" s="47"/>
+      <c r="N80" s="47"/>
+      <c r="O80" s="47"/>
     </row>
     <row r="81" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="42">
@@ -5962,25 +5974,25 @@
       <c r="C81" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D81" s="43" t="s">
+      <c r="D81" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="E81" s="43"/>
-      <c r="F81" s="43" t="s">
+      <c r="E81" s="54"/>
+      <c r="F81" s="54" t="s">
         <v>318</v>
       </c>
-      <c r="G81" s="43"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="31" t="s">
         <v>326</v>
       </c>
-      <c r="I81" s="43" t="s">
+      <c r="I81" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="J81" s="43"/>
-      <c r="K81" s="43" t="s">
+      <c r="J81" s="54"/>
+      <c r="K81" s="54" t="s">
         <v>342</v>
       </c>
-      <c r="L81" s="43"/>
+      <c r="L81" s="54"/>
       <c r="M81" s="31" t="s">
         <v>350</v>
       </c>
@@ -5988,7 +6000,7 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O81" s="34" t="s">
+      <c r="O81" s="44" t="s">
         <v>18</v>
       </c>
     </row>
@@ -6000,25 +6012,25 @@
       <c r="C82" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D82" s="43" t="s">
+      <c r="D82" s="54" t="s">
         <v>311</v>
       </c>
-      <c r="E82" s="43"/>
-      <c r="F82" s="43" t="s">
+      <c r="E82" s="54"/>
+      <c r="F82" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="G82" s="43"/>
+      <c r="G82" s="54"/>
       <c r="H82" s="31" t="s">
         <v>327</v>
       </c>
-      <c r="I82" s="43" t="s">
+      <c r="I82" s="54" t="s">
         <v>335</v>
       </c>
-      <c r="J82" s="43"/>
-      <c r="K82" s="43" t="s">
+      <c r="J82" s="54"/>
+      <c r="K82" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="L82" s="43"/>
+      <c r="L82" s="54"/>
       <c r="M82" s="31" t="s">
         <v>351</v>
       </c>
@@ -6026,7 +6038,7 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O82" s="36"/>
+      <c r="O82" s="45"/>
     </row>
     <row r="83" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="42">
@@ -6036,25 +6048,25 @@
       <c r="C83" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D83" s="43" t="s">
+      <c r="D83" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="E83" s="43"/>
-      <c r="F83" s="43" t="s">
+      <c r="E83" s="54"/>
+      <c r="F83" s="54" t="s">
         <v>320</v>
       </c>
-      <c r="G83" s="43"/>
+      <c r="G83" s="54"/>
       <c r="H83" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="I83" s="43" t="s">
+      <c r="I83" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="J83" s="43"/>
-      <c r="K83" s="43" t="s">
+      <c r="J83" s="54"/>
+      <c r="K83" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="L83" s="43"/>
+      <c r="L83" s="54"/>
       <c r="M83" s="31" t="s">
         <v>352</v>
       </c>
@@ -6062,7 +6074,7 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O83" s="36"/>
+      <c r="O83" s="45"/>
     </row>
     <row r="84" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="42">
@@ -6072,25 +6084,25 @@
       <c r="C84" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D84" s="43" t="s">
+      <c r="D84" s="54" t="s">
         <v>313</v>
       </c>
-      <c r="E84" s="43"/>
-      <c r="F84" s="43" t="s">
+      <c r="E84" s="54"/>
+      <c r="F84" s="54" t="s">
         <v>321</v>
       </c>
-      <c r="G84" s="43"/>
+      <c r="G84" s="54"/>
       <c r="H84" s="31" t="s">
         <v>329</v>
       </c>
-      <c r="I84" s="43" t="s">
+      <c r="I84" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="J84" s="43"/>
-      <c r="K84" s="43" t="s">
+      <c r="J84" s="54"/>
+      <c r="K84" s="54" t="s">
         <v>345</v>
       </c>
-      <c r="L84" s="43"/>
+      <c r="L84" s="54"/>
       <c r="M84" s="31" t="s">
         <v>353</v>
       </c>
@@ -6098,7 +6110,7 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O84" s="36"/>
+      <c r="O84" s="45"/>
     </row>
     <row r="85" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="42">
@@ -6108,25 +6120,25 @@
       <c r="C85" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D85" s="43" t="s">
+      <c r="D85" s="54" t="s">
         <v>314</v>
       </c>
-      <c r="E85" s="43"/>
-      <c r="F85" s="43" t="s">
+      <c r="E85" s="54"/>
+      <c r="F85" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="G85" s="43"/>
+      <c r="G85" s="54"/>
       <c r="H85" s="31" t="s">
         <v>330</v>
       </c>
-      <c r="I85" s="43" t="s">
+      <c r="I85" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="J85" s="43"/>
-      <c r="K85" s="43" t="s">
+      <c r="J85" s="54"/>
+      <c r="K85" s="54" t="s">
         <v>346</v>
       </c>
-      <c r="L85" s="43"/>
+      <c r="L85" s="54"/>
       <c r="M85" s="31" t="s">
         <v>354</v>
       </c>
@@ -6134,7 +6146,7 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O85" s="36"/>
+      <c r="O85" s="45"/>
     </row>
     <row r="86" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="42" t="s">
@@ -6144,25 +6156,25 @@
       <c r="C86" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="43" t="s">
+      <c r="D86" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="E86" s="43"/>
-      <c r="F86" s="43" t="s">
+      <c r="E86" s="54"/>
+      <c r="F86" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="G86" s="43"/>
+      <c r="G86" s="54"/>
       <c r="H86" s="31" t="s">
         <v>331</v>
       </c>
-      <c r="I86" s="43" t="s">
+      <c r="I86" s="54" t="s">
         <v>339</v>
       </c>
-      <c r="J86" s="43"/>
-      <c r="K86" s="43" t="s">
+      <c r="J86" s="54"/>
+      <c r="K86" s="54" t="s">
         <v>347</v>
       </c>
-      <c r="L86" s="43"/>
+      <c r="L86" s="54"/>
       <c r="M86" s="31" t="s">
         <v>355</v>
       </c>
@@ -6170,7 +6182,7 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O86" s="36"/>
+      <c r="O86" s="45"/>
     </row>
     <row r="87" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="42" t="s">
@@ -6180,25 +6192,25 @@
       <c r="C87" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D87" s="43" t="s">
+      <c r="D87" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43" t="s">
+      <c r="E87" s="54"/>
+      <c r="F87" s="54" t="s">
         <v>324</v>
       </c>
-      <c r="G87" s="43"/>
+      <c r="G87" s="54"/>
       <c r="H87" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="I87" s="43" t="s">
+      <c r="I87" s="54" t="s">
         <v>340</v>
       </c>
-      <c r="J87" s="43"/>
-      <c r="K87" s="43" t="s">
+      <c r="J87" s="54"/>
+      <c r="K87" s="54" t="s">
         <v>348</v>
       </c>
-      <c r="L87" s="43"/>
+      <c r="L87" s="54"/>
       <c r="M87" s="31" t="s">
         <v>356</v>
       </c>
@@ -6206,7 +6218,7 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O87" s="36"/>
+      <c r="O87" s="45"/>
     </row>
     <row r="88" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="42" t="s">
@@ -6216,25 +6228,25 @@
       <c r="C88" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D88" s="43" t="s">
+      <c r="D88" s="54" t="s">
         <v>317</v>
       </c>
-      <c r="E88" s="43"/>
-      <c r="F88" s="43" t="s">
+      <c r="E88" s="54"/>
+      <c r="F88" s="54" t="s">
         <v>325</v>
       </c>
-      <c r="G88" s="43"/>
+      <c r="G88" s="54"/>
       <c r="H88" s="31" t="s">
         <v>333</v>
       </c>
-      <c r="I88" s="43" t="s">
+      <c r="I88" s="54" t="s">
         <v>341</v>
       </c>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43" t="s">
+      <c r="J88" s="54"/>
+      <c r="K88" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="L88" s="43"/>
+      <c r="L88" s="54"/>
       <c r="M88" s="31" t="s">
         <v>357</v>
       </c>
@@ -6242,26 +6254,26 @@
         <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="O88" s="35"/>
+      <c r="O88" s="46"/>
     </row>
     <row r="89" spans="1:15" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="37" t="s">
+      <c r="A89" s="51" t="s">
         <v>91</v>
       </c>
-      <c r="B89" s="38"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="38"/>
-      <c r="E89" s="38"/>
-      <c r="F89" s="38"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="38"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
-      <c r="L89" s="38"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="39"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="60"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="60"/>
+      <c r="J89" s="60"/>
+      <c r="K89" s="60"/>
+      <c r="L89" s="60"/>
+      <c r="M89" s="60"/>
+      <c r="N89" s="60"/>
+      <c r="O89" s="52"/>
     </row>
     <row r="90" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="42">
@@ -6271,25 +6283,25 @@
       <c r="C90" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D90" s="43" t="s">
+      <c r="D90" s="54" t="s">
         <v>302</v>
       </c>
-      <c r="E90" s="43"/>
-      <c r="F90" s="43" t="s">
+      <c r="E90" s="54"/>
+      <c r="F90" s="54" t="s">
         <v>358</v>
       </c>
-      <c r="G90" s="43"/>
+      <c r="G90" s="54"/>
       <c r="H90" s="31" t="s">
         <v>359</v>
       </c>
-      <c r="I90" s="43" t="s">
+      <c r="I90" s="54" t="s">
         <v>360</v>
       </c>
-      <c r="J90" s="43"/>
-      <c r="K90" s="43" t="s">
+      <c r="J90" s="54"/>
+      <c r="K90" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="L90" s="43"/>
+      <c r="L90" s="54"/>
       <c r="M90" s="31" t="s">
         <v>362</v>
       </c>
@@ -6309,25 +6321,25 @@
       <c r="C91" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D91" s="43" t="s">
+      <c r="D91" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="E91" s="43"/>
-      <c r="F91" s="43" t="s">
+      <c r="E91" s="54"/>
+      <c r="F91" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="G91" s="43"/>
+      <c r="G91" s="54"/>
       <c r="H91" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="I91" s="43" t="s">
+      <c r="I91" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43" t="s">
+      <c r="J91" s="54"/>
+      <c r="K91" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="L91" s="43"/>
+      <c r="L91" s="54"/>
       <c r="M91" s="31" t="s">
         <v>411</v>
       </c>
@@ -6345,25 +6357,25 @@
       <c r="C92" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D92" s="43" t="s">
+      <c r="D92" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="E92" s="43"/>
-      <c r="F92" s="43" t="s">
+      <c r="E92" s="54"/>
+      <c r="F92" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="G92" s="43"/>
+      <c r="G92" s="54"/>
       <c r="H92" s="31" t="s">
         <v>379</v>
       </c>
-      <c r="I92" s="43" t="s">
+      <c r="I92" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="J92" s="43"/>
-      <c r="K92" s="43" t="s">
+      <c r="J92" s="54"/>
+      <c r="K92" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="L92" s="43"/>
+      <c r="L92" s="54"/>
       <c r="M92" s="31" t="s">
         <v>412</v>
       </c>
@@ -6381,25 +6393,25 @@
       <c r="C93" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D93" s="43" t="s">
+      <c r="D93" s="54" t="s">
         <v>305</v>
       </c>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43" t="s">
+      <c r="E93" s="54"/>
+      <c r="F93" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="G93" s="43"/>
+      <c r="G93" s="54"/>
       <c r="H93" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="I93" s="43" t="s">
+      <c r="I93" s="54" t="s">
         <v>391</v>
       </c>
-      <c r="J93" s="43"/>
-      <c r="K93" s="43" t="s">
+      <c r="J93" s="54"/>
+      <c r="K93" s="54" t="s">
         <v>402</v>
       </c>
-      <c r="L93" s="43"/>
+      <c r="L93" s="54"/>
       <c r="M93" s="31" t="s">
         <v>413</v>
       </c>
@@ -6417,25 +6429,25 @@
       <c r="C94" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D94" s="43" t="s">
+      <c r="D94" s="54" t="s">
         <v>306</v>
       </c>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43" t="s">
+      <c r="E94" s="54"/>
+      <c r="F94" s="54" t="s">
         <v>370</v>
       </c>
-      <c r="G94" s="43"/>
+      <c r="G94" s="54"/>
       <c r="H94" s="31" t="s">
         <v>381</v>
       </c>
-      <c r="I94" s="43" t="s">
+      <c r="I94" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="J94" s="43"/>
-      <c r="K94" s="43" t="s">
+      <c r="J94" s="54"/>
+      <c r="K94" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="L94" s="43"/>
+      <c r="L94" s="54"/>
       <c r="M94" s="31" t="s">
         <v>414</v>
       </c>
@@ -6453,25 +6465,25 @@
       <c r="C95" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D95" s="43" t="s">
+      <c r="D95" s="54" t="s">
         <v>307</v>
       </c>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43" t="s">
+      <c r="E95" s="54"/>
+      <c r="F95" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="G95" s="43"/>
+      <c r="G95" s="54"/>
       <c r="H95" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="I95" s="43" t="s">
+      <c r="I95" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="J95" s="43"/>
-      <c r="K95" s="43" t="s">
+      <c r="J95" s="54"/>
+      <c r="K95" s="54" t="s">
         <v>404</v>
       </c>
-      <c r="L95" s="43"/>
+      <c r="L95" s="54"/>
       <c r="M95" s="31" t="s">
         <v>415</v>
       </c>
@@ -6489,25 +6501,25 @@
       <c r="C96" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D96" s="43" t="s">
+      <c r="D96" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="E96" s="43"/>
-      <c r="F96" s="43" t="s">
+      <c r="E96" s="54"/>
+      <c r="F96" s="54" t="s">
         <v>372</v>
       </c>
-      <c r="G96" s="43"/>
+      <c r="G96" s="54"/>
       <c r="H96" s="31" t="s">
         <v>383</v>
       </c>
-      <c r="I96" s="43" t="s">
+      <c r="I96" s="54" t="s">
         <v>394</v>
       </c>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43" t="s">
+      <c r="J96" s="54"/>
+      <c r="K96" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="L96" s="43"/>
+      <c r="L96" s="54"/>
       <c r="M96" s="31" t="s">
         <v>416</v>
       </c>
@@ -6525,25 +6537,25 @@
       <c r="C97" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="D97" s="43" t="s">
+      <c r="D97" s="54" t="s">
         <v>309</v>
       </c>
-      <c r="E97" s="43"/>
-      <c r="F97" s="43" t="s">
+      <c r="E97" s="54"/>
+      <c r="F97" s="54" t="s">
         <v>373</v>
       </c>
-      <c r="G97" s="43"/>
+      <c r="G97" s="54"/>
       <c r="H97" s="31" t="s">
         <v>384</v>
       </c>
-      <c r="I97" s="43" t="s">
+      <c r="I97" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="J97" s="43"/>
-      <c r="K97" s="43" t="s">
+      <c r="J97" s="54"/>
+      <c r="K97" s="54" t="s">
         <v>406</v>
       </c>
-      <c r="L97" s="43"/>
+      <c r="L97" s="54"/>
       <c r="M97" s="31" t="s">
         <v>417</v>
       </c>
@@ -6561,25 +6573,25 @@
       <c r="C98" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D98" s="43" t="s">
+      <c r="D98" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43" t="s">
+      <c r="E98" s="54"/>
+      <c r="F98" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="G98" s="43"/>
+      <c r="G98" s="54"/>
       <c r="H98" s="31" t="s">
         <v>385</v>
       </c>
-      <c r="I98" s="43" t="s">
+      <c r="I98" s="54" t="s">
         <v>396</v>
       </c>
-      <c r="J98" s="43"/>
-      <c r="K98" s="43" t="s">
+      <c r="J98" s="54"/>
+      <c r="K98" s="54" t="s">
         <v>407</v>
       </c>
-      <c r="L98" s="43"/>
+      <c r="L98" s="54"/>
       <c r="M98" s="31" t="s">
         <v>418</v>
       </c>
@@ -6597,25 +6609,25 @@
       <c r="C99" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D99" s="43" t="s">
+      <c r="D99" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="E99" s="43"/>
-      <c r="F99" s="43" t="s">
+      <c r="E99" s="54"/>
+      <c r="F99" s="54" t="s">
         <v>375</v>
       </c>
-      <c r="G99" s="43"/>
+      <c r="G99" s="54"/>
       <c r="H99" s="31" t="s">
         <v>386</v>
       </c>
-      <c r="I99" s="43" t="s">
+      <c r="I99" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="J99" s="43"/>
-      <c r="K99" s="43" t="s">
+      <c r="J99" s="54"/>
+      <c r="K99" s="54" t="s">
         <v>408</v>
       </c>
-      <c r="L99" s="43"/>
+      <c r="L99" s="54"/>
       <c r="M99" s="31" t="s">
         <v>419</v>
       </c>
@@ -6633,25 +6645,25 @@
       <c r="C100" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D100" s="43" t="s">
+      <c r="D100" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="E100" s="43"/>
-      <c r="F100" s="43" t="s">
+      <c r="E100" s="54"/>
+      <c r="F100" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="G100" s="43"/>
+      <c r="G100" s="54"/>
       <c r="H100" s="31" t="s">
         <v>387</v>
       </c>
-      <c r="I100" s="43" t="s">
+      <c r="I100" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="J100" s="43"/>
-      <c r="K100" s="43" t="s">
+      <c r="J100" s="54"/>
+      <c r="K100" s="54" t="s">
         <v>409</v>
       </c>
-      <c r="L100" s="43"/>
+      <c r="L100" s="54"/>
       <c r="M100" s="31" t="s">
         <v>420</v>
       </c>
@@ -6669,25 +6681,25 @@
       <c r="C101" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D101" s="43" t="s">
+      <c r="D101" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43" t="s">
+      <c r="E101" s="54"/>
+      <c r="F101" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="G101" s="43"/>
+      <c r="G101" s="54"/>
       <c r="H101" s="31" t="s">
         <v>388</v>
       </c>
-      <c r="I101" s="43" t="s">
+      <c r="I101" s="54" t="s">
         <v>399</v>
       </c>
-      <c r="J101" s="43"/>
-      <c r="K101" s="43" t="s">
+      <c r="J101" s="54"/>
+      <c r="K101" s="54" t="s">
         <v>410</v>
       </c>
-      <c r="L101" s="43"/>
+      <c r="L101" s="54"/>
       <c r="M101" s="31" t="s">
         <v>421</v>
       </c>
@@ -6786,7 +6798,7 @@
       <c r="O105" s="18"/>
     </row>
     <row r="106" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="34">
+      <c r="A106" s="44">
         <v>1</v>
       </c>
       <c r="B106" s="19">
@@ -6812,7 +6824,7 @@
         <f>20*LOG10((E106/F106)/G106)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I106" s="34" t="s">
+      <c r="I106" s="44" t="s">
         <v>23</v>
       </c>
       <c r="J106" s="18"/>
@@ -6823,7 +6835,7 @@
       <c r="O106" s="18"/>
     </row>
     <row r="107" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="36"/>
+      <c r="A107" s="45"/>
       <c r="B107" s="19">
         <v>10</v>
       </c>
@@ -6847,7 +6859,7 @@
         <f t="shared" ref="H107:H138" si="5">20*LOG10((E107/F107)/G107)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I107" s="36"/>
+      <c r="I107" s="45"/>
       <c r="J107" s="18"/>
       <c r="K107" s="18"/>
       <c r="L107" s="18"/>
@@ -6856,7 +6868,7 @@
       <c r="O107" s="18"/>
     </row>
     <row r="108" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A108" s="36"/>
+      <c r="A108" s="45"/>
       <c r="B108" s="26">
         <v>20</v>
       </c>
@@ -6880,7 +6892,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I108" s="36"/>
+      <c r="I108" s="45"/>
       <c r="J108" s="18"/>
       <c r="K108" s="18"/>
       <c r="L108" s="18"/>
@@ -6889,7 +6901,7 @@
       <c r="O108" s="18"/>
     </row>
     <row r="109" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="36"/>
+      <c r="A109" s="45"/>
       <c r="B109" s="26">
         <v>50</v>
       </c>
@@ -6913,7 +6925,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I109" s="36"/>
+      <c r="I109" s="45"/>
       <c r="J109" s="18"/>
       <c r="K109" s="18"/>
       <c r="L109" s="18"/>
@@ -6922,7 +6934,7 @@
       <c r="O109" s="18"/>
     </row>
     <row r="110" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="36"/>
+      <c r="A110" s="45"/>
       <c r="B110" s="26">
         <v>100</v>
       </c>
@@ -6946,7 +6958,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I110" s="36"/>
+      <c r="I110" s="45"/>
       <c r="J110" s="18"/>
       <c r="K110" s="18"/>
       <c r="L110" s="18"/>
@@ -6955,7 +6967,7 @@
       <c r="O110" s="18"/>
     </row>
     <row r="111" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="36"/>
+      <c r="A111" s="45"/>
       <c r="B111" s="27">
         <v>200</v>
       </c>
@@ -6979,7 +6991,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I111" s="36"/>
+      <c r="I111" s="45"/>
       <c r="J111" s="18"/>
       <c r="K111" s="18"/>
       <c r="L111" s="18"/>
@@ -6988,7 +7000,7 @@
       <c r="O111" s="18"/>
     </row>
     <row r="112" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="36"/>
+      <c r="A112" s="45"/>
       <c r="B112" s="27">
         <v>500</v>
       </c>
@@ -7012,7 +7024,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I112" s="36"/>
+      <c r="I112" s="45"/>
       <c r="J112" s="18"/>
       <c r="K112" s="18"/>
       <c r="L112" s="18"/>
@@ -7021,7 +7033,7 @@
       <c r="O112" s="18"/>
     </row>
     <row r="113" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="35"/>
+      <c r="A113" s="46"/>
       <c r="B113" s="27">
         <v>1000</v>
       </c>
@@ -7045,7 +7057,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I113" s="35"/>
+      <c r="I113" s="46"/>
       <c r="J113" s="18"/>
       <c r="K113" s="18"/>
       <c r="L113" s="18"/>
@@ -7115,7 +7127,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I115" s="34" t="s">
+      <c r="I115" s="44" t="s">
         <v>23</v>
       </c>
       <c r="J115" s="18"/>
@@ -7150,7 +7162,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I116" s="36"/>
+      <c r="I116" s="45"/>
       <c r="J116" s="18"/>
       <c r="K116" s="18"/>
       <c r="L116" s="18"/>
@@ -7183,7 +7195,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I117" s="36"/>
+      <c r="I117" s="45"/>
       <c r="J117" s="18"/>
       <c r="K117" s="18"/>
       <c r="L117" s="18"/>
@@ -7216,7 +7228,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I118" s="36"/>
+      <c r="I118" s="45"/>
       <c r="J118" s="18"/>
       <c r="K118" s="18"/>
       <c r="L118" s="18"/>
@@ -7249,7 +7261,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I119" s="36"/>
+      <c r="I119" s="45"/>
       <c r="J119" s="18"/>
       <c r="K119" s="18"/>
       <c r="L119" s="18"/>
@@ -7282,7 +7294,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I120" s="36"/>
+      <c r="I120" s="45"/>
       <c r="J120" s="18"/>
       <c r="K120" s="18"/>
       <c r="L120" s="18"/>
@@ -7315,7 +7327,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I121" s="36"/>
+      <c r="I121" s="45"/>
       <c r="J121" s="18"/>
       <c r="K121" s="18"/>
       <c r="L121" s="18"/>
@@ -7348,7 +7360,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I122" s="36"/>
+      <c r="I122" s="45"/>
       <c r="J122" s="18"/>
       <c r="K122" s="18"/>
       <c r="L122" s="18"/>
@@ -7383,7 +7395,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I123" s="36"/>
+      <c r="I123" s="45"/>
       <c r="J123" s="18"/>
       <c r="K123" s="18"/>
       <c r="L123" s="18"/>
@@ -7416,7 +7428,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I124" s="36"/>
+      <c r="I124" s="45"/>
       <c r="J124" s="18"/>
       <c r="K124" s="18"/>
       <c r="L124" s="18"/>
@@ -7449,7 +7461,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I125" s="36"/>
+      <c r="I125" s="45"/>
       <c r="J125" s="18"/>
       <c r="K125" s="18"/>
       <c r="L125" s="18"/>
@@ -7482,7 +7494,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I126" s="36"/>
+      <c r="I126" s="45"/>
       <c r="J126" s="18"/>
       <c r="K126" s="18"/>
       <c r="L126" s="18"/>
@@ -7515,7 +7527,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I127" s="36"/>
+      <c r="I127" s="45"/>
       <c r="J127" s="18"/>
       <c r="K127" s="18"/>
       <c r="L127" s="18"/>
@@ -7548,7 +7560,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I128" s="36"/>
+      <c r="I128" s="45"/>
       <c r="J128" s="18"/>
       <c r="K128" s="18"/>
       <c r="L128" s="18"/>
@@ -7581,7 +7593,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I129" s="36"/>
+      <c r="I129" s="45"/>
       <c r="J129" s="18"/>
       <c r="K129" s="18"/>
       <c r="L129" s="18"/>
@@ -7614,7 +7626,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I130" s="36"/>
+      <c r="I130" s="45"/>
       <c r="J130" s="18"/>
       <c r="K130" s="18"/>
       <c r="L130" s="18"/>
@@ -7649,7 +7661,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I131" s="36"/>
+      <c r="I131" s="45"/>
       <c r="J131" s="18"/>
       <c r="K131" s="18"/>
       <c r="L131" s="18"/>
@@ -7682,7 +7694,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I132" s="36"/>
+      <c r="I132" s="45"/>
       <c r="J132" s="18"/>
       <c r="K132" s="18"/>
       <c r="L132" s="18"/>
@@ -7715,7 +7727,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I133" s="36"/>
+      <c r="I133" s="45"/>
       <c r="J133" s="18"/>
       <c r="K133" s="18"/>
       <c r="L133" s="18"/>
@@ -7748,7 +7760,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I134" s="36"/>
+      <c r="I134" s="45"/>
       <c r="J134" s="18"/>
       <c r="K134" s="18"/>
       <c r="L134" s="18"/>
@@ -7781,7 +7793,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I135" s="36"/>
+      <c r="I135" s="45"/>
       <c r="J135" s="18"/>
       <c r="K135" s="18"/>
       <c r="L135" s="18"/>
@@ -7814,7 +7826,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I136" s="36"/>
+      <c r="I136" s="45"/>
       <c r="J136" s="18"/>
       <c r="K136" s="18"/>
       <c r="L136" s="18"/>
@@ -7847,7 +7859,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I137" s="36"/>
+      <c r="I137" s="45"/>
       <c r="J137" s="18"/>
       <c r="K137" s="18"/>
       <c r="L137" s="18"/>
@@ -7880,7 +7892,7 @@
         <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I138" s="35"/>
+      <c r="I138" s="46"/>
       <c r="J138" s="18"/>
       <c r="K138" s="18"/>
       <c r="L138" s="18"/>
@@ -7906,23 +7918,23 @@
       <c r="O139" s="4"/>
     </row>
     <row r="140" spans="1:15" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="53" t="s">
+      <c r="A140" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B140" s="53"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="53"/>
-      <c r="E140" s="53"/>
-      <c r="F140" s="53"/>
-      <c r="G140" s="53"/>
-      <c r="H140" s="53"/>
-      <c r="I140" s="53"/>
-      <c r="J140" s="53"/>
-      <c r="K140" s="53"/>
-      <c r="L140" s="53"/>
-      <c r="M140" s="53"/>
-      <c r="N140" s="53"/>
-      <c r="O140" s="53"/>
+      <c r="B140" s="58"/>
+      <c r="C140" s="58"/>
+      <c r="D140" s="58"/>
+      <c r="E140" s="58"/>
+      <c r="F140" s="58"/>
+      <c r="G140" s="58"/>
+      <c r="H140" s="58"/>
+      <c r="I140" s="58"/>
+      <c r="J140" s="58"/>
+      <c r="K140" s="58"/>
+      <c r="L140" s="58"/>
+      <c r="M140" s="58"/>
+      <c r="N140" s="58"/>
+      <c r="O140" s="58"/>
     </row>
     <row r="141" spans="1:15" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="28"/>
@@ -7942,76 +7954,76 @@
       <c r="O141" s="18"/>
     </row>
     <row r="142" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="33" t="s">
+      <c r="A142" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B142" s="33" t="s">
+      <c r="B142" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33" t="s">
+      <c r="C142" s="47"/>
+      <c r="D142" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E142" s="33" t="s">
+      <c r="E142" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="F142" s="33"/>
-      <c r="G142" s="33" t="s">
+      <c r="F142" s="47"/>
+      <c r="G142" s="47" t="s">
         <v>48</v>
       </c>
-      <c r="H142" s="33"/>
-      <c r="I142" s="33" t="s">
+      <c r="H142" s="47"/>
+      <c r="I142" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="J142" s="33"/>
-      <c r="K142" s="33" t="s">
+      <c r="J142" s="47"/>
+      <c r="K142" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="L142" s="33"/>
-      <c r="M142" s="33" t="s">
+      <c r="L142" s="47"/>
+      <c r="M142" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N142" s="33"/>
-      <c r="O142" s="33" t="s">
+      <c r="N142" s="47"/>
+      <c r="O142" s="47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="33"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="33"/>
-      <c r="G143" s="33"/>
-      <c r="H143" s="33"/>
-      <c r="I143" s="33"/>
-      <c r="J143" s="33"/>
-      <c r="K143" s="33"/>
-      <c r="L143" s="33"/>
-      <c r="M143" s="33"/>
-      <c r="N143" s="33"/>
-      <c r="O143" s="33"/>
+      <c r="A143" s="47"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="47"/>
+      <c r="D143" s="47"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="47"/>
+      <c r="I143" s="47"/>
+      <c r="J143" s="47"/>
+      <c r="K143" s="47"/>
+      <c r="L143" s="47"/>
+      <c r="M143" s="47"/>
+      <c r="N143" s="47"/>
+      <c r="O143" s="47"/>
     </row>
     <row r="144" spans="1:15" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="33"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="33"/>
-      <c r="G144" s="33"/>
-      <c r="H144" s="33"/>
-      <c r="I144" s="33"/>
-      <c r="J144" s="33"/>
-      <c r="K144" s="33"/>
-      <c r="L144" s="33"/>
-      <c r="M144" s="33"/>
-      <c r="N144" s="33"/>
-      <c r="O144" s="33"/>
+      <c r="A144" s="47"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="47"/>
+      <c r="D144" s="47"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="47"/>
+      <c r="H144" s="47"/>
+      <c r="I144" s="47"/>
+      <c r="J144" s="47"/>
+      <c r="K144" s="47"/>
+      <c r="L144" s="47"/>
+      <c r="M144" s="47"/>
+      <c r="N144" s="47"/>
+      <c r="O144" s="47"/>
     </row>
     <row r="145" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="34">
+      <c r="A145" s="44">
         <v>1</v>
       </c>
       <c r="B145" s="42">
@@ -8021,33 +8033,33 @@
       <c r="D145" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E145" s="41" t="s">
+      <c r="E145" s="43" t="s">
         <v>550</v>
       </c>
-      <c r="F145" s="41"/>
-      <c r="G145" s="41" t="s">
+      <c r="F145" s="43"/>
+      <c r="G145" s="43" t="s">
         <v>551</v>
       </c>
-      <c r="H145" s="41"/>
-      <c r="I145" s="41" t="s">
+      <c r="H145" s="43"/>
+      <c r="I145" s="43" t="s">
         <v>552</v>
       </c>
-      <c r="J145" s="41"/>
-      <c r="K145" s="41" t="s">
+      <c r="J145" s="43"/>
+      <c r="K145" s="43" t="s">
         <v>553</v>
       </c>
-      <c r="L145" s="41"/>
-      <c r="M145" s="40" t="e">
+      <c r="L145" s="43"/>
+      <c r="M145" s="63" t="e">
         <f>((I145-K145)/(E145-G145)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N145" s="40"/>
-      <c r="O145" s="34" t="s">
+      <c r="N145" s="63"/>
+      <c r="O145" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="146" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="36"/>
+      <c r="A146" s="45"/>
       <c r="B146" s="42">
         <v>10</v>
       </c>
@@ -8055,31 +8067,31 @@
       <c r="D146" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E146" s="41" t="s">
+      <c r="E146" s="43" t="s">
         <v>554</v>
       </c>
-      <c r="F146" s="41"/>
-      <c r="G146" s="41" t="s">
+      <c r="F146" s="43"/>
+      <c r="G146" s="43" t="s">
         <v>555</v>
       </c>
-      <c r="H146" s="41"/>
-      <c r="I146" s="41" t="s">
+      <c r="H146" s="43"/>
+      <c r="I146" s="43" t="s">
         <v>556</v>
       </c>
-      <c r="J146" s="41"/>
-      <c r="K146" s="41" t="s">
+      <c r="J146" s="43"/>
+      <c r="K146" s="43" t="s">
         <v>557</v>
       </c>
-      <c r="L146" s="41"/>
-      <c r="M146" s="40" t="e">
+      <c r="L146" s="43"/>
+      <c r="M146" s="63" t="e">
         <f t="shared" ref="M146:M154" si="6">((I146-K146)/(E146-G146)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N146" s="40"/>
-      <c r="O146" s="36"/>
+      <c r="N146" s="63"/>
+      <c r="O146" s="45"/>
     </row>
     <row r="147" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="36"/>
+      <c r="A147" s="45"/>
       <c r="B147" s="42">
         <v>20</v>
       </c>
@@ -8087,31 +8099,31 @@
       <c r="D147" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E147" s="41" t="s">
+      <c r="E147" s="43" t="s">
         <v>558</v>
       </c>
-      <c r="F147" s="41"/>
-      <c r="G147" s="41" t="s">
+      <c r="F147" s="43"/>
+      <c r="G147" s="43" t="s">
         <v>559</v>
       </c>
-      <c r="H147" s="41"/>
-      <c r="I147" s="41" t="s">
+      <c r="H147" s="43"/>
+      <c r="I147" s="43" t="s">
         <v>560</v>
       </c>
-      <c r="J147" s="41"/>
-      <c r="K147" s="41" t="s">
+      <c r="J147" s="43"/>
+      <c r="K147" s="43" t="s">
         <v>561</v>
       </c>
-      <c r="L147" s="41"/>
-      <c r="M147" s="40" t="e">
+      <c r="L147" s="43"/>
+      <c r="M147" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N147" s="40"/>
-      <c r="O147" s="36"/>
+      <c r="N147" s="63"/>
+      <c r="O147" s="45"/>
     </row>
     <row r="148" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="36"/>
+      <c r="A148" s="45"/>
       <c r="B148" s="42">
         <v>50</v>
       </c>
@@ -8119,31 +8131,31 @@
       <c r="D148" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E148" s="41" t="s">
+      <c r="E148" s="43" t="s">
         <v>562</v>
       </c>
-      <c r="F148" s="41"/>
-      <c r="G148" s="41" t="s">
+      <c r="F148" s="43"/>
+      <c r="G148" s="43" t="s">
         <v>563</v>
       </c>
-      <c r="H148" s="41"/>
-      <c r="I148" s="41" t="s">
+      <c r="H148" s="43"/>
+      <c r="I148" s="43" t="s">
         <v>564</v>
       </c>
-      <c r="J148" s="41"/>
-      <c r="K148" s="41" t="s">
+      <c r="J148" s="43"/>
+      <c r="K148" s="43" t="s">
         <v>565</v>
       </c>
-      <c r="L148" s="41"/>
-      <c r="M148" s="40" t="e">
+      <c r="L148" s="43"/>
+      <c r="M148" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N148" s="40"/>
-      <c r="O148" s="36"/>
+      <c r="N148" s="63"/>
+      <c r="O148" s="45"/>
     </row>
     <row r="149" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A149" s="36"/>
+      <c r="A149" s="45"/>
       <c r="B149" s="42">
         <v>100</v>
       </c>
@@ -8151,31 +8163,31 @@
       <c r="D149" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E149" s="41" t="s">
+      <c r="E149" s="43" t="s">
         <v>566</v>
       </c>
-      <c r="F149" s="41"/>
-      <c r="G149" s="41" t="s">
+      <c r="F149" s="43"/>
+      <c r="G149" s="43" t="s">
         <v>567</v>
       </c>
-      <c r="H149" s="41"/>
-      <c r="I149" s="41" t="s">
+      <c r="H149" s="43"/>
+      <c r="I149" s="43" t="s">
         <v>568</v>
       </c>
-      <c r="J149" s="41"/>
-      <c r="K149" s="41" t="s">
+      <c r="J149" s="43"/>
+      <c r="K149" s="43" t="s">
         <v>569</v>
       </c>
-      <c r="L149" s="41"/>
-      <c r="M149" s="40" t="e">
+      <c r="L149" s="43"/>
+      <c r="M149" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N149" s="40"/>
-      <c r="O149" s="36"/>
+      <c r="N149" s="63"/>
+      <c r="O149" s="45"/>
     </row>
     <row r="150" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="35"/>
+      <c r="A150" s="46"/>
       <c r="B150" s="42">
         <v>200</v>
       </c>
@@ -8183,100 +8195,100 @@
       <c r="D150" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E150" s="41" t="s">
+      <c r="E150" s="43" t="s">
         <v>570</v>
       </c>
-      <c r="F150" s="41"/>
-      <c r="G150" s="41" t="s">
+      <c r="F150" s="43"/>
+      <c r="G150" s="43" t="s">
         <v>571</v>
       </c>
-      <c r="H150" s="41"/>
-      <c r="I150" s="41" t="s">
+      <c r="H150" s="43"/>
+      <c r="I150" s="43" t="s">
         <v>572</v>
       </c>
-      <c r="J150" s="41"/>
-      <c r="K150" s="41" t="s">
+      <c r="J150" s="43"/>
+      <c r="K150" s="43" t="s">
         <v>573</v>
       </c>
-      <c r="L150" s="41"/>
-      <c r="M150" s="40" t="e">
+      <c r="L150" s="43"/>
+      <c r="M150" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N150" s="40"/>
-      <c r="O150" s="35"/>
+      <c r="N150" s="63"/>
+      <c r="O150" s="46"/>
     </row>
     <row r="151" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="33" t="s">
+      <c r="A151" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="B151" s="33" t="s">
+      <c r="B151" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C151" s="33"/>
-      <c r="D151" s="33" t="s">
+      <c r="C151" s="47"/>
+      <c r="D151" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="E151" s="33" t="s">
+      <c r="E151" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="F151" s="33"/>
-      <c r="G151" s="33" t="s">
+      <c r="F151" s="47"/>
+      <c r="G151" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="H151" s="33"/>
-      <c r="I151" s="33" t="s">
+      <c r="H151" s="47"/>
+      <c r="I151" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="J151" s="33"/>
-      <c r="K151" s="33" t="s">
+      <c r="J151" s="47"/>
+      <c r="K151" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L151" s="33"/>
-      <c r="M151" s="33" t="s">
+      <c r="L151" s="47"/>
+      <c r="M151" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="N151" s="33"/>
-      <c r="O151" s="33" t="s">
+      <c r="N151" s="47"/>
+      <c r="O151" s="47" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="152" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="33"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="33"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="33"/>
-      <c r="G152" s="33"/>
-      <c r="H152" s="33"/>
-      <c r="I152" s="33"/>
-      <c r="J152" s="33"/>
-      <c r="K152" s="33"/>
-      <c r="L152" s="33"/>
-      <c r="M152" s="33"/>
-      <c r="N152" s="33"/>
-      <c r="O152" s="33"/>
+      <c r="A152" s="47"/>
+      <c r="B152" s="47"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="47"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="47"/>
+      <c r="G152" s="47"/>
+      <c r="H152" s="47"/>
+      <c r="I152" s="47"/>
+      <c r="J152" s="47"/>
+      <c r="K152" s="47"/>
+      <c r="L152" s="47"/>
+      <c r="M152" s="47"/>
+      <c r="N152" s="47"/>
+      <c r="O152" s="47"/>
     </row>
     <row r="153" spans="1:15" s="1" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="33"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="33"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="33"/>
-      <c r="G153" s="33"/>
-      <c r="H153" s="33"/>
-      <c r="I153" s="33"/>
-      <c r="J153" s="33"/>
-      <c r="K153" s="33"/>
-      <c r="L153" s="33"/>
-      <c r="M153" s="33"/>
-      <c r="N153" s="33"/>
-      <c r="O153" s="33"/>
+      <c r="A153" s="47"/>
+      <c r="B153" s="47"/>
+      <c r="C153" s="47"/>
+      <c r="D153" s="47"/>
+      <c r="E153" s="47"/>
+      <c r="F153" s="47"/>
+      <c r="G153" s="47"/>
+      <c r="H153" s="47"/>
+      <c r="I153" s="47"/>
+      <c r="J153" s="47"/>
+      <c r="K153" s="47"/>
+      <c r="L153" s="47"/>
+      <c r="M153" s="47"/>
+      <c r="N153" s="47"/>
+      <c r="O153" s="47"/>
     </row>
     <row r="154" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A154" s="34">
+      <c r="A154" s="44">
         <v>1</v>
       </c>
       <c r="B154" s="42">
@@ -8286,33 +8298,33 @@
       <c r="D154" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E154" s="41" t="s">
+      <c r="E154" s="43" t="s">
         <v>574</v>
       </c>
-      <c r="F154" s="41"/>
-      <c r="G154" s="41" t="s">
+      <c r="F154" s="43"/>
+      <c r="G154" s="43" t="s">
         <v>575</v>
       </c>
-      <c r="H154" s="41"/>
-      <c r="I154" s="41" t="s">
+      <c r="H154" s="43"/>
+      <c r="I154" s="43" t="s">
         <v>576</v>
       </c>
-      <c r="J154" s="41"/>
-      <c r="K154" s="41" t="s">
+      <c r="J154" s="43"/>
+      <c r="K154" s="43" t="s">
         <v>577</v>
       </c>
-      <c r="L154" s="41"/>
-      <c r="M154" s="40" t="e">
+      <c r="L154" s="43"/>
+      <c r="M154" s="63" t="e">
         <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N154" s="40"/>
-      <c r="O154" s="34" t="s">
+      <c r="N154" s="63"/>
+      <c r="O154" s="44" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="155" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="35"/>
+      <c r="A155" s="46"/>
       <c r="B155" s="42" t="s">
         <v>69</v>
       </c>
@@ -8320,31 +8332,31 @@
       <c r="D155" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E155" s="41" t="s">
+      <c r="E155" s="43" t="s">
         <v>578</v>
       </c>
-      <c r="F155" s="41"/>
-      <c r="G155" s="41" t="s">
+      <c r="F155" s="43"/>
+      <c r="G155" s="43" t="s">
         <v>579</v>
       </c>
-      <c r="H155" s="41"/>
-      <c r="I155" s="41" t="s">
+      <c r="H155" s="43"/>
+      <c r="I155" s="43" t="s">
         <v>580</v>
       </c>
-      <c r="J155" s="41"/>
-      <c r="K155" s="41" t="s">
+      <c r="J155" s="43"/>
+      <c r="K155" s="43" t="s">
         <v>581</v>
       </c>
-      <c r="L155" s="41"/>
-      <c r="M155" s="40" t="e">
+      <c r="L155" s="43"/>
+      <c r="M155" s="63" t="e">
         <f>((I155-K155)/(E155-G155)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N155" s="40"/>
-      <c r="O155" s="36"/>
+      <c r="N155" s="63"/>
+      <c r="O155" s="45"/>
     </row>
     <row r="156" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="34">
+      <c r="A156" s="44">
         <v>2</v>
       </c>
       <c r="B156" s="42">
@@ -8354,31 +8366,31 @@
       <c r="D156" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E156" s="41" t="s">
+      <c r="E156" s="43" t="s">
         <v>582</v>
       </c>
-      <c r="F156" s="41"/>
-      <c r="G156" s="41" t="s">
+      <c r="F156" s="43"/>
+      <c r="G156" s="43" t="s">
         <v>583</v>
       </c>
-      <c r="H156" s="41"/>
-      <c r="I156" s="41" t="s">
+      <c r="H156" s="43"/>
+      <c r="I156" s="43" t="s">
         <v>584</v>
       </c>
-      <c r="J156" s="41"/>
-      <c r="K156" s="41" t="s">
+      <c r="J156" s="43"/>
+      <c r="K156" s="43" t="s">
         <v>585</v>
       </c>
-      <c r="L156" s="41"/>
-      <c r="M156" s="48" t="e">
+      <c r="L156" s="43"/>
+      <c r="M156" s="61" t="e">
         <f>((I156-K156)/(E156-G156)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N156" s="49"/>
-      <c r="O156" s="36"/>
+      <c r="N156" s="62"/>
+      <c r="O156" s="45"/>
     </row>
     <row r="157" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="36"/>
+      <c r="A157" s="45"/>
       <c r="B157" s="42">
         <v>10</v>
       </c>
@@ -8386,31 +8398,31 @@
       <c r="D157" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E157" s="41" t="s">
+      <c r="E157" s="43" t="s">
         <v>586</v>
       </c>
-      <c r="F157" s="41"/>
-      <c r="G157" s="41" t="s">
+      <c r="F157" s="43"/>
+      <c r="G157" s="43" t="s">
         <v>587</v>
       </c>
-      <c r="H157" s="41"/>
-      <c r="I157" s="41" t="s">
+      <c r="H157" s="43"/>
+      <c r="I157" s="43" t="s">
         <v>588</v>
       </c>
-      <c r="J157" s="41"/>
-      <c r="K157" s="41" t="s">
+      <c r="J157" s="43"/>
+      <c r="K157" s="43" t="s">
         <v>589</v>
       </c>
-      <c r="L157" s="41"/>
-      <c r="M157" s="48" t="e">
+      <c r="L157" s="43"/>
+      <c r="M157" s="61" t="e">
         <f t="shared" ref="M157:M162" si="7">((I157-K157)/(E157-G157)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N157" s="49"/>
-      <c r="O157" s="36"/>
+      <c r="N157" s="62"/>
+      <c r="O157" s="45"/>
     </row>
     <row r="158" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A158" s="36"/>
+      <c r="A158" s="45"/>
       <c r="B158" s="42">
         <v>20</v>
       </c>
@@ -8418,31 +8430,31 @@
       <c r="D158" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E158" s="41" t="s">
+      <c r="E158" s="43" t="s">
         <v>590</v>
       </c>
-      <c r="F158" s="41"/>
-      <c r="G158" s="41" t="s">
+      <c r="F158" s="43"/>
+      <c r="G158" s="43" t="s">
         <v>591</v>
       </c>
-      <c r="H158" s="41"/>
-      <c r="I158" s="41" t="s">
+      <c r="H158" s="43"/>
+      <c r="I158" s="43" t="s">
         <v>592</v>
       </c>
-      <c r="J158" s="41"/>
-      <c r="K158" s="41" t="s">
+      <c r="J158" s="43"/>
+      <c r="K158" s="43" t="s">
         <v>593</v>
       </c>
-      <c r="L158" s="41"/>
-      <c r="M158" s="48" t="e">
+      <c r="L158" s="43"/>
+      <c r="M158" s="61" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N158" s="49"/>
-      <c r="O158" s="36"/>
+      <c r="N158" s="62"/>
+      <c r="O158" s="45"/>
     </row>
     <row r="159" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A159" s="36"/>
+      <c r="A159" s="45"/>
       <c r="B159" s="42">
         <v>50</v>
       </c>
@@ -8450,31 +8462,31 @@
       <c r="D159" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E159" s="41" t="s">
+      <c r="E159" s="43" t="s">
         <v>594</v>
       </c>
-      <c r="F159" s="41"/>
-      <c r="G159" s="41" t="s">
+      <c r="F159" s="43"/>
+      <c r="G159" s="43" t="s">
         <v>595</v>
       </c>
-      <c r="H159" s="41"/>
-      <c r="I159" s="41" t="s">
+      <c r="H159" s="43"/>
+      <c r="I159" s="43" t="s">
         <v>596</v>
       </c>
-      <c r="J159" s="41"/>
-      <c r="K159" s="41" t="s">
+      <c r="J159" s="43"/>
+      <c r="K159" s="43" t="s">
         <v>597</v>
       </c>
-      <c r="L159" s="41"/>
-      <c r="M159" s="48" t="e">
+      <c r="L159" s="43"/>
+      <c r="M159" s="61" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N159" s="49"/>
-      <c r="O159" s="36"/>
+      <c r="N159" s="62"/>
+      <c r="O159" s="45"/>
     </row>
     <row r="160" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="36"/>
+      <c r="A160" s="45"/>
       <c r="B160" s="42">
         <v>100</v>
       </c>
@@ -8482,31 +8494,31 @@
       <c r="D160" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E160" s="41" t="s">
+      <c r="E160" s="43" t="s">
         <v>598</v>
       </c>
-      <c r="F160" s="41"/>
-      <c r="G160" s="41" t="s">
+      <c r="F160" s="43"/>
+      <c r="G160" s="43" t="s">
         <v>599</v>
       </c>
-      <c r="H160" s="41"/>
-      <c r="I160" s="41" t="s">
+      <c r="H160" s="43"/>
+      <c r="I160" s="43" t="s">
         <v>600</v>
       </c>
-      <c r="J160" s="41"/>
-      <c r="K160" s="41" t="s">
+      <c r="J160" s="43"/>
+      <c r="K160" s="43" t="s">
         <v>601</v>
       </c>
-      <c r="L160" s="41"/>
-      <c r="M160" s="48" t="e">
+      <c r="L160" s="43"/>
+      <c r="M160" s="61" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N160" s="49"/>
-      <c r="O160" s="36"/>
+      <c r="N160" s="62"/>
+      <c r="O160" s="45"/>
     </row>
     <row r="161" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="36"/>
+      <c r="A161" s="45"/>
       <c r="B161" s="42">
         <v>200</v>
       </c>
@@ -8514,31 +8526,31 @@
       <c r="D161" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E161" s="41" t="s">
+      <c r="E161" s="43" t="s">
         <v>602</v>
       </c>
-      <c r="F161" s="41"/>
-      <c r="G161" s="41" t="s">
+      <c r="F161" s="43"/>
+      <c r="G161" s="43" t="s">
         <v>603</v>
       </c>
-      <c r="H161" s="41"/>
-      <c r="I161" s="41" t="s">
+      <c r="H161" s="43"/>
+      <c r="I161" s="43" t="s">
         <v>604</v>
       </c>
-      <c r="J161" s="41"/>
-      <c r="K161" s="41" t="s">
+      <c r="J161" s="43"/>
+      <c r="K161" s="43" t="s">
         <v>605</v>
       </c>
-      <c r="L161" s="41"/>
-      <c r="M161" s="48" t="e">
+      <c r="L161" s="43"/>
+      <c r="M161" s="61" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N161" s="49"/>
-      <c r="O161" s="36"/>
+      <c r="N161" s="62"/>
+      <c r="O161" s="45"/>
     </row>
     <row r="162" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A162" s="36"/>
+      <c r="A162" s="45"/>
       <c r="B162" s="42">
         <v>500</v>
       </c>
@@ -8546,31 +8558,31 @@
       <c r="D162" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E162" s="41" t="s">
+      <c r="E162" s="43" t="s">
         <v>606</v>
       </c>
-      <c r="F162" s="41"/>
-      <c r="G162" s="41" t="s">
+      <c r="F162" s="43"/>
+      <c r="G162" s="43" t="s">
         <v>607</v>
       </c>
-      <c r="H162" s="41"/>
-      <c r="I162" s="41" t="s">
+      <c r="H162" s="43"/>
+      <c r="I162" s="43" t="s">
         <v>608</v>
       </c>
-      <c r="J162" s="41"/>
-      <c r="K162" s="41" t="s">
+      <c r="J162" s="43"/>
+      <c r="K162" s="43" t="s">
         <v>609</v>
       </c>
-      <c r="L162" s="41"/>
-      <c r="M162" s="40" t="e">
+      <c r="L162" s="43"/>
+      <c r="M162" s="63" t="e">
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N162" s="40"/>
-      <c r="O162" s="36"/>
+      <c r="N162" s="63"/>
+      <c r="O162" s="45"/>
     </row>
     <row r="163" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A163" s="35"/>
+      <c r="A163" s="46"/>
       <c r="B163" s="42" t="s">
         <v>69</v>
       </c>
@@ -8578,28 +8590,28 @@
       <c r="D163" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E163" s="41" t="s">
+      <c r="E163" s="43" t="s">
         <v>610</v>
       </c>
-      <c r="F163" s="41"/>
-      <c r="G163" s="41" t="s">
+      <c r="F163" s="43"/>
+      <c r="G163" s="43" t="s">
         <v>611</v>
       </c>
-      <c r="H163" s="41"/>
-      <c r="I163" s="41" t="s">
+      <c r="H163" s="43"/>
+      <c r="I163" s="43" t="s">
         <v>612</v>
       </c>
-      <c r="J163" s="41"/>
-      <c r="K163" s="41" t="s">
+      <c r="J163" s="43"/>
+      <c r="K163" s="43" t="s">
         <v>613</v>
       </c>
-      <c r="L163" s="41"/>
-      <c r="M163" s="40" t="e">
+      <c r="L163" s="43"/>
+      <c r="M163" s="63" t="e">
         <f>((I163-K163)/(E163-G163)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N163" s="40"/>
-      <c r="O163" s="36"/>
+      <c r="N163" s="63"/>
+      <c r="O163" s="45"/>
     </row>
     <row r="164" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A164" s="42">
@@ -8612,28 +8624,28 @@
       <c r="D164" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E164" s="41" t="s">
+      <c r="E164" s="43" t="s">
         <v>614</v>
       </c>
-      <c r="F164" s="41"/>
-      <c r="G164" s="41" t="s">
+      <c r="F164" s="43"/>
+      <c r="G164" s="43" t="s">
         <v>615</v>
       </c>
-      <c r="H164" s="41"/>
-      <c r="I164" s="41" t="s">
+      <c r="H164" s="43"/>
+      <c r="I164" s="43" t="s">
         <v>616</v>
       </c>
-      <c r="J164" s="41"/>
-      <c r="K164" s="41" t="s">
+      <c r="J164" s="43"/>
+      <c r="K164" s="43" t="s">
         <v>617</v>
       </c>
-      <c r="L164" s="41"/>
-      <c r="M164" s="40" t="e">
+      <c r="L164" s="43"/>
+      <c r="M164" s="63" t="e">
         <f>((I164-K164)/(E164-G164)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N164" s="40"/>
-      <c r="O164" s="36"/>
+      <c r="N164" s="63"/>
+      <c r="O164" s="45"/>
     </row>
     <row r="165" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A165" s="42"/>
@@ -8644,28 +8656,28 @@
       <c r="D165" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E165" s="41" t="s">
+      <c r="E165" s="43" t="s">
         <v>618</v>
       </c>
-      <c r="F165" s="41"/>
-      <c r="G165" s="41" t="s">
+      <c r="F165" s="43"/>
+      <c r="G165" s="43" t="s">
         <v>619</v>
       </c>
-      <c r="H165" s="41"/>
-      <c r="I165" s="41" t="s">
+      <c r="H165" s="43"/>
+      <c r="I165" s="43" t="s">
         <v>620</v>
       </c>
-      <c r="J165" s="41"/>
-      <c r="K165" s="41" t="s">
+      <c r="J165" s="43"/>
+      <c r="K165" s="43" t="s">
         <v>621</v>
       </c>
-      <c r="L165" s="41"/>
-      <c r="M165" s="40" t="e">
+      <c r="L165" s="43"/>
+      <c r="M165" s="63" t="e">
         <f t="shared" ref="M165:M170" si="8">((I165-K165)/(E165-G165)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N165" s="40"/>
-      <c r="O165" s="36"/>
+      <c r="N165" s="63"/>
+      <c r="O165" s="45"/>
     </row>
     <row r="166" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A166" s="42"/>
@@ -8676,28 +8688,28 @@
       <c r="D166" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E166" s="41" t="s">
+      <c r="E166" s="43" t="s">
         <v>622</v>
       </c>
-      <c r="F166" s="41"/>
-      <c r="G166" s="41" t="s">
+      <c r="F166" s="43"/>
+      <c r="G166" s="43" t="s">
         <v>623</v>
       </c>
-      <c r="H166" s="41"/>
-      <c r="I166" s="41" t="s">
+      <c r="H166" s="43"/>
+      <c r="I166" s="43" t="s">
         <v>624</v>
       </c>
-      <c r="J166" s="41"/>
-      <c r="K166" s="41" t="s">
+      <c r="J166" s="43"/>
+      <c r="K166" s="43" t="s">
         <v>625</v>
       </c>
-      <c r="L166" s="41"/>
-      <c r="M166" s="40" t="e">
+      <c r="L166" s="43"/>
+      <c r="M166" s="63" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N166" s="40"/>
-      <c r="O166" s="36"/>
+      <c r="N166" s="63"/>
+      <c r="O166" s="45"/>
     </row>
     <row r="167" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A167" s="42"/>
@@ -8708,28 +8720,28 @@
       <c r="D167" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E167" s="41" t="s">
+      <c r="E167" s="43" t="s">
         <v>626</v>
       </c>
-      <c r="F167" s="41"/>
-      <c r="G167" s="41" t="s">
+      <c r="F167" s="43"/>
+      <c r="G167" s="43" t="s">
         <v>627</v>
       </c>
-      <c r="H167" s="41"/>
-      <c r="I167" s="41" t="s">
+      <c r="H167" s="43"/>
+      <c r="I167" s="43" t="s">
         <v>628</v>
       </c>
-      <c r="J167" s="41"/>
-      <c r="K167" s="41" t="s">
+      <c r="J167" s="43"/>
+      <c r="K167" s="43" t="s">
         <v>629</v>
       </c>
-      <c r="L167" s="41"/>
-      <c r="M167" s="40" t="e">
+      <c r="L167" s="43"/>
+      <c r="M167" s="63" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N167" s="40"/>
-      <c r="O167" s="36"/>
+      <c r="N167" s="63"/>
+      <c r="O167" s="45"/>
     </row>
     <row r="168" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A168" s="42"/>
@@ -8740,28 +8752,28 @@
       <c r="D168" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E168" s="41" t="s">
+      <c r="E168" s="43" t="s">
         <v>630</v>
       </c>
-      <c r="F168" s="41"/>
-      <c r="G168" s="41" t="s">
+      <c r="F168" s="43"/>
+      <c r="G168" s="43" t="s">
         <v>631</v>
       </c>
-      <c r="H168" s="41"/>
-      <c r="I168" s="41" t="s">
+      <c r="H168" s="43"/>
+      <c r="I168" s="43" t="s">
         <v>632</v>
       </c>
-      <c r="J168" s="41"/>
-      <c r="K168" s="41" t="s">
+      <c r="J168" s="43"/>
+      <c r="K168" s="43" t="s">
         <v>633</v>
       </c>
-      <c r="L168" s="41"/>
-      <c r="M168" s="40" t="e">
+      <c r="L168" s="43"/>
+      <c r="M168" s="63" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N168" s="40"/>
-      <c r="O168" s="36"/>
+      <c r="N168" s="63"/>
+      <c r="O168" s="45"/>
     </row>
     <row r="169" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A169" s="42"/>
@@ -8772,28 +8784,28 @@
       <c r="D169" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E169" s="41" t="s">
+      <c r="E169" s="43" t="s">
         <v>634</v>
       </c>
-      <c r="F169" s="41"/>
-      <c r="G169" s="41" t="s">
+      <c r="F169" s="43"/>
+      <c r="G169" s="43" t="s">
         <v>635</v>
       </c>
-      <c r="H169" s="41"/>
-      <c r="I169" s="41" t="s">
+      <c r="H169" s="43"/>
+      <c r="I169" s="43" t="s">
         <v>636</v>
       </c>
-      <c r="J169" s="41"/>
-      <c r="K169" s="41" t="s">
+      <c r="J169" s="43"/>
+      <c r="K169" s="43" t="s">
         <v>637</v>
       </c>
-      <c r="L169" s="41"/>
-      <c r="M169" s="40" t="e">
+      <c r="L169" s="43"/>
+      <c r="M169" s="63" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N169" s="40"/>
-      <c r="O169" s="36"/>
+      <c r="N169" s="63"/>
+      <c r="O169" s="45"/>
     </row>
     <row r="170" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A170" s="42"/>
@@ -8804,28 +8816,28 @@
       <c r="D170" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E170" s="41" t="s">
+      <c r="E170" s="43" t="s">
         <v>638</v>
       </c>
-      <c r="F170" s="41"/>
-      <c r="G170" s="41" t="s">
+      <c r="F170" s="43"/>
+      <c r="G170" s="43" t="s">
         <v>639</v>
       </c>
-      <c r="H170" s="41"/>
-      <c r="I170" s="41" t="s">
+      <c r="H170" s="43"/>
+      <c r="I170" s="43" t="s">
         <v>640</v>
       </c>
-      <c r="J170" s="41"/>
-      <c r="K170" s="41" t="s">
+      <c r="J170" s="43"/>
+      <c r="K170" s="43" t="s">
         <v>641</v>
       </c>
-      <c r="L170" s="41"/>
-      <c r="M170" s="40" t="e">
+      <c r="L170" s="43"/>
+      <c r="M170" s="63" t="e">
         <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N170" s="40"/>
-      <c r="O170" s="36"/>
+      <c r="N170" s="63"/>
+      <c r="O170" s="45"/>
     </row>
     <row r="171" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A171" s="42"/>
@@ -8836,28 +8848,28 @@
       <c r="D171" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E171" s="41" t="s">
+      <c r="E171" s="43" t="s">
         <v>642</v>
       </c>
-      <c r="F171" s="41"/>
-      <c r="G171" s="41" t="s">
+      <c r="F171" s="43"/>
+      <c r="G171" s="43" t="s">
         <v>643</v>
       </c>
-      <c r="H171" s="41"/>
-      <c r="I171" s="41" t="s">
+      <c r="H171" s="43"/>
+      <c r="I171" s="43" t="s">
         <v>644</v>
       </c>
-      <c r="J171" s="41"/>
-      <c r="K171" s="41" t="s">
+      <c r="J171" s="43"/>
+      <c r="K171" s="43" t="s">
         <v>645</v>
       </c>
-      <c r="L171" s="41"/>
-      <c r="M171" s="40" t="e">
+      <c r="L171" s="43"/>
+      <c r="M171" s="63" t="e">
         <f>((I171-K171)/(E171-G171)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N171" s="40"/>
-      <c r="O171" s="36"/>
+      <c r="N171" s="63"/>
+      <c r="O171" s="45"/>
     </row>
     <row r="172" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A172" s="42">
@@ -8870,28 +8882,28 @@
       <c r="D172" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E172" s="41" t="s">
+      <c r="E172" s="43" t="s">
         <v>646</v>
       </c>
-      <c r="F172" s="41"/>
-      <c r="G172" s="41" t="s">
+      <c r="F172" s="43"/>
+      <c r="G172" s="43" t="s">
         <v>647</v>
       </c>
-      <c r="H172" s="41"/>
-      <c r="I172" s="41" t="s">
+      <c r="H172" s="43"/>
+      <c r="I172" s="43" t="s">
         <v>648</v>
       </c>
-      <c r="J172" s="41"/>
-      <c r="K172" s="41" t="s">
+      <c r="J172" s="43"/>
+      <c r="K172" s="43" t="s">
         <v>649</v>
       </c>
-      <c r="L172" s="41"/>
-      <c r="M172" s="40" t="e">
+      <c r="L172" s="43"/>
+      <c r="M172" s="63" t="e">
         <f>((I172-K172)/(E172-G172)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N172" s="40"/>
-      <c r="O172" s="36"/>
+      <c r="N172" s="63"/>
+      <c r="O172" s="45"/>
     </row>
     <row r="173" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A173" s="42"/>
@@ -8902,28 +8914,28 @@
       <c r="D173" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E173" s="41" t="s">
+      <c r="E173" s="43" t="s">
         <v>650</v>
       </c>
-      <c r="F173" s="41"/>
-      <c r="G173" s="41" t="s">
+      <c r="F173" s="43"/>
+      <c r="G173" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="H173" s="41"/>
-      <c r="I173" s="41" t="s">
+      <c r="H173" s="43"/>
+      <c r="I173" s="43" t="s">
         <v>652</v>
       </c>
-      <c r="J173" s="41"/>
-      <c r="K173" s="41" t="s">
+      <c r="J173" s="43"/>
+      <c r="K173" s="43" t="s">
         <v>653</v>
       </c>
-      <c r="L173" s="41"/>
-      <c r="M173" s="40" t="e">
+      <c r="L173" s="43"/>
+      <c r="M173" s="63" t="e">
         <f t="shared" ref="M173:M178" si="9">((I173-K173)/(E173-G173)-1)*75</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N173" s="40"/>
-      <c r="O173" s="36"/>
+      <c r="N173" s="63"/>
+      <c r="O173" s="45"/>
     </row>
     <row r="174" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A174" s="42"/>
@@ -8934,28 +8946,28 @@
       <c r="D174" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E174" s="41" t="s">
+      <c r="E174" s="43" t="s">
         <v>654</v>
       </c>
-      <c r="F174" s="41"/>
-      <c r="G174" s="41" t="s">
+      <c r="F174" s="43"/>
+      <c r="G174" s="43" t="s">
         <v>655</v>
       </c>
-      <c r="H174" s="41"/>
-      <c r="I174" s="41" t="s">
+      <c r="H174" s="43"/>
+      <c r="I174" s="43" t="s">
         <v>656</v>
       </c>
-      <c r="J174" s="41"/>
-      <c r="K174" s="41" t="s">
+      <c r="J174" s="43"/>
+      <c r="K174" s="43" t="s">
         <v>657</v>
       </c>
-      <c r="L174" s="41"/>
-      <c r="M174" s="40" t="e">
+      <c r="L174" s="43"/>
+      <c r="M174" s="63" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N174" s="40"/>
-      <c r="O174" s="36"/>
+      <c r="N174" s="63"/>
+      <c r="O174" s="45"/>
     </row>
     <row r="175" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A175" s="42"/>
@@ -8966,28 +8978,28 @@
       <c r="D175" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E175" s="41" t="s">
+      <c r="E175" s="43" t="s">
         <v>658</v>
       </c>
-      <c r="F175" s="41"/>
-      <c r="G175" s="41" t="s">
+      <c r="F175" s="43"/>
+      <c r="G175" s="43" t="s">
         <v>659</v>
       </c>
-      <c r="H175" s="41"/>
-      <c r="I175" s="41" t="s">
+      <c r="H175" s="43"/>
+      <c r="I175" s="43" t="s">
         <v>660</v>
       </c>
-      <c r="J175" s="41"/>
-      <c r="K175" s="41" t="s">
+      <c r="J175" s="43"/>
+      <c r="K175" s="43" t="s">
         <v>661</v>
       </c>
-      <c r="L175" s="41"/>
-      <c r="M175" s="40" t="e">
+      <c r="L175" s="43"/>
+      <c r="M175" s="63" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N175" s="40"/>
-      <c r="O175" s="36"/>
+      <c r="N175" s="63"/>
+      <c r="O175" s="45"/>
     </row>
     <row r="176" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A176" s="42"/>
@@ -8998,28 +9010,28 @@
       <c r="D176" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E176" s="41" t="s">
+      <c r="E176" s="43" t="s">
         <v>662</v>
       </c>
-      <c r="F176" s="41"/>
-      <c r="G176" s="41" t="s">
+      <c r="F176" s="43"/>
+      <c r="G176" s="43" t="s">
         <v>663</v>
       </c>
-      <c r="H176" s="41"/>
-      <c r="I176" s="41" t="s">
+      <c r="H176" s="43"/>
+      <c r="I176" s="43" t="s">
         <v>664</v>
       </c>
-      <c r="J176" s="41"/>
-      <c r="K176" s="41" t="s">
+      <c r="J176" s="43"/>
+      <c r="K176" s="43" t="s">
         <v>665</v>
       </c>
-      <c r="L176" s="41"/>
-      <c r="M176" s="40" t="e">
+      <c r="L176" s="43"/>
+      <c r="M176" s="63" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N176" s="40"/>
-      <c r="O176" s="36"/>
+      <c r="N176" s="63"/>
+      <c r="O176" s="45"/>
     </row>
     <row r="177" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A177" s="42"/>
@@ -9030,28 +9042,28 @@
       <c r="D177" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E177" s="41" t="s">
+      <c r="E177" s="43" t="s">
         <v>666</v>
       </c>
-      <c r="F177" s="41"/>
-      <c r="G177" s="41" t="s">
+      <c r="F177" s="43"/>
+      <c r="G177" s="43" t="s">
         <v>667</v>
       </c>
-      <c r="H177" s="41"/>
-      <c r="I177" s="41" t="s">
+      <c r="H177" s="43"/>
+      <c r="I177" s="43" t="s">
         <v>668</v>
       </c>
-      <c r="J177" s="41"/>
-      <c r="K177" s="41" t="s">
+      <c r="J177" s="43"/>
+      <c r="K177" s="43" t="s">
         <v>669</v>
       </c>
-      <c r="L177" s="41"/>
-      <c r="M177" s="40" t="e">
+      <c r="L177" s="43"/>
+      <c r="M177" s="63" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N177" s="40"/>
-      <c r="O177" s="36"/>
+      <c r="N177" s="63"/>
+      <c r="O177" s="45"/>
     </row>
     <row r="178" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A178" s="42"/>
@@ -9062,28 +9074,28 @@
       <c r="D178" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E178" s="41" t="s">
+      <c r="E178" s="43" t="s">
         <v>670</v>
       </c>
-      <c r="F178" s="41"/>
-      <c r="G178" s="41" t="s">
+      <c r="F178" s="43"/>
+      <c r="G178" s="43" t="s">
         <v>671</v>
       </c>
-      <c r="H178" s="41"/>
-      <c r="I178" s="41" t="s">
+      <c r="H178" s="43"/>
+      <c r="I178" s="43" t="s">
         <v>672</v>
       </c>
-      <c r="J178" s="41"/>
-      <c r="K178" s="41" t="s">
+      <c r="J178" s="43"/>
+      <c r="K178" s="43" t="s">
         <v>673</v>
       </c>
-      <c r="L178" s="41"/>
-      <c r="M178" s="40" t="e">
+      <c r="L178" s="43"/>
+      <c r="M178" s="63" t="e">
         <f t="shared" si="9"/>
         <v>#VALUE!</v>
       </c>
-      <c r="N178" s="40"/>
-      <c r="O178" s="36"/>
+      <c r="N178" s="63"/>
+      <c r="O178" s="45"/>
     </row>
     <row r="179" spans="1:15" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A179" s="42"/>
@@ -9094,28 +9106,28 @@
       <c r="D179" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E179" s="41" t="s">
+      <c r="E179" s="43" t="s">
         <v>674</v>
       </c>
-      <c r="F179" s="41"/>
-      <c r="G179" s="41" t="s">
+      <c r="F179" s="43"/>
+      <c r="G179" s="43" t="s">
         <v>675</v>
       </c>
-      <c r="H179" s="41"/>
-      <c r="I179" s="41" t="s">
+      <c r="H179" s="43"/>
+      <c r="I179" s="43" t="s">
         <v>676</v>
       </c>
-      <c r="J179" s="41"/>
-      <c r="K179" s="41" t="s">
+      <c r="J179" s="43"/>
+      <c r="K179" s="43" t="s">
         <v>677</v>
       </c>
-      <c r="L179" s="41"/>
-      <c r="M179" s="40" t="e">
+      <c r="L179" s="43"/>
+      <c r="M179" s="63" t="e">
         <f>((I179-K179)/(E179-G179)-1)*60</f>
         <v>#VALUE!</v>
       </c>
-      <c r="N179" s="40"/>
-      <c r="O179" s="35"/>
+      <c r="N179" s="63"/>
+      <c r="O179" s="46"/>
     </row>
     <row r="180" spans="1:15" s="1" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="18"/>
@@ -9135,21 +9147,21 @@
       <c r="O180" s="18"/>
     </row>
     <row r="181" spans="1:15" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="53" t="s">
+      <c r="A181" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="B181" s="53"/>
-      <c r="C181" s="53"/>
-      <c r="D181" s="53"/>
-      <c r="E181" s="53"/>
-      <c r="F181" s="53"/>
-      <c r="G181" s="53"/>
-      <c r="H181" s="53"/>
-      <c r="I181" s="53"/>
-      <c r="J181" s="53"/>
-      <c r="K181" s="53"/>
-      <c r="L181" s="53"/>
-      <c r="M181" s="53"/>
+      <c r="B181" s="58"/>
+      <c r="C181" s="58"/>
+      <c r="D181" s="58"/>
+      <c r="E181" s="58"/>
+      <c r="F181" s="58"/>
+      <c r="G181" s="58"/>
+      <c r="H181" s="58"/>
+      <c r="I181" s="58"/>
+      <c r="J181" s="58"/>
+      <c r="K181" s="58"/>
+      <c r="L181" s="58"/>
+      <c r="M181" s="58"/>
       <c r="N181" s="18"/>
       <c r="O181" s="18"/>
     </row>
@@ -9171,18 +9183,18 @@
       <c r="O182" s="18"/>
     </row>
     <row r="183" spans="1:15" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="37" t="s">
+      <c r="A183" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="B183" s="39"/>
+      <c r="B183" s="52"/>
       <c r="C183" s="42" t="s">
         <v>87</v>
       </c>
       <c r="D183" s="42"/>
-      <c r="E183" s="33" t="s">
+      <c r="E183" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="F183" s="33"/>
+      <c r="F183" s="47"/>
       <c r="G183" s="18"/>
       <c r="H183" s="18"/>
       <c r="I183" s="18"/>
@@ -9194,18 +9206,18 @@
       <c r="O183" s="18"/>
     </row>
     <row r="184" spans="1:15" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="55">
+      <c r="A184" s="56">
         <v>10000004.859999999</v>
       </c>
-      <c r="B184" s="55"/>
-      <c r="C184" s="56" t="s">
+      <c r="B184" s="56"/>
+      <c r="C184" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="D184" s="43"/>
-      <c r="E184" s="33" t="s">
+      <c r="D184" s="54"/>
+      <c r="E184" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="F184" s="33"/>
+      <c r="F184" s="47"/>
       <c r="G184" s="18"/>
       <c r="H184" s="18"/>
       <c r="I184" s="18"/>
@@ -9237,46 +9249,46 @@
       <c r="A186" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B186" s="60"/>
-      <c r="C186" s="60"/>
-      <c r="D186" s="60"/>
-      <c r="E186" s="60"/>
-      <c r="F186" s="60"/>
+      <c r="B186" s="33"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33"/>
       <c r="G186" s="1"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
     </row>
     <row r="187" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="60"/>
-      <c r="B187" s="61"/>
+      <c r="A187" s="33"/>
+      <c r="B187" s="34"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="62" t="s">
+      <c r="E187" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F187" s="62"/>
-      <c r="G187" s="63" t="s">
+      <c r="F187" s="38"/>
+      <c r="G187" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="H187" s="63"/>
+      <c r="H187" s="39"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
     </row>
     <row r="188" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="62" t="s">
+      <c r="A188" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B188" s="62"/>
-      <c r="C188" s="64"/>
-      <c r="D188" s="65" t="s">
+      <c r="B188" s="38"/>
+      <c r="C188" s="35"/>
+      <c r="D188" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="E188" s="66" t="s">
+      <c r="E188" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="F188" s="67"/>
-      <c r="G188" s="68" t="s">
+      <c r="F188" s="41"/>
+      <c r="G188" s="37" t="s">
         <v>101</v>
       </c>
     </row>
@@ -9301,6 +9313,563 @@
     <row r="205" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="581">
+    <mergeCell ref="M78:M80"/>
+    <mergeCell ref="N78:N80"/>
+    <mergeCell ref="I106:I113"/>
+    <mergeCell ref="I115:I138"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="K92:L92"/>
+    <mergeCell ref="K93:L93"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="K90:L90"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="K95:L95"/>
+    <mergeCell ref="K78:L80"/>
+    <mergeCell ref="A154:A155"/>
+    <mergeCell ref="O81:O88"/>
+    <mergeCell ref="A89:O89"/>
+    <mergeCell ref="A151:A153"/>
+    <mergeCell ref="B151:C153"/>
+    <mergeCell ref="D151:D153"/>
+    <mergeCell ref="M147:N147"/>
+    <mergeCell ref="K100:L100"/>
+    <mergeCell ref="I150:J150"/>
+    <mergeCell ref="O151:O153"/>
+    <mergeCell ref="A145:A150"/>
+    <mergeCell ref="O145:O150"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="M151:N153"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="D78:E80"/>
+    <mergeCell ref="F78:G80"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="I78:J80"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="K99:L99"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="K97:L97"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="K98:L98"/>
+    <mergeCell ref="O90:O101"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="K91:L91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="K94:L94"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="K87:L87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="K88:L88"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="K85:L85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="K86:L86"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="K83:L83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="K84:L84"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="K81:L81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="A60:O60"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="M44:M46"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K44:L46"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="O61:O72"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A30:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D30:E32"/>
+    <mergeCell ref="F30:M31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I145:J145"/>
+    <mergeCell ref="K145:L145"/>
+    <mergeCell ref="I146:J146"/>
+    <mergeCell ref="K146:L146"/>
+    <mergeCell ref="A73:O73"/>
+    <mergeCell ref="O78:O80"/>
+    <mergeCell ref="O74:O77"/>
+    <mergeCell ref="A78:B80"/>
+    <mergeCell ref="A106:A113"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="M160:N160"/>
+    <mergeCell ref="I159:J159"/>
+    <mergeCell ref="K159:L159"/>
+    <mergeCell ref="I160:J160"/>
+    <mergeCell ref="K160:L160"/>
+    <mergeCell ref="I156:J156"/>
+    <mergeCell ref="K156:L156"/>
+    <mergeCell ref="I157:J157"/>
+    <mergeCell ref="K157:L157"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="K149:L149"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="M148:N148"/>
+    <mergeCell ref="O142:O144"/>
+    <mergeCell ref="M142:N144"/>
+    <mergeCell ref="M145:N145"/>
+    <mergeCell ref="M146:N146"/>
+    <mergeCell ref="M176:N176"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="M167:N167"/>
+    <mergeCell ref="M159:N159"/>
+    <mergeCell ref="M156:N156"/>
+    <mergeCell ref="M157:N157"/>
+    <mergeCell ref="O154:O179"/>
+    <mergeCell ref="M178:N178"/>
+    <mergeCell ref="M179:N179"/>
+    <mergeCell ref="M173:N173"/>
+    <mergeCell ref="M174:N174"/>
+    <mergeCell ref="M169:N169"/>
+    <mergeCell ref="M170:N170"/>
+    <mergeCell ref="M171:N171"/>
+    <mergeCell ref="M172:N172"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="M168:N168"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A140:O140"/>
+    <mergeCell ref="M155:N155"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="M149:N149"/>
+    <mergeCell ref="M150:N150"/>
+    <mergeCell ref="M154:N154"/>
+    <mergeCell ref="K150:L150"/>
+    <mergeCell ref="I154:J154"/>
+    <mergeCell ref="K154:L154"/>
+    <mergeCell ref="I155:J155"/>
+    <mergeCell ref="K155:L155"/>
+    <mergeCell ref="K151:L153"/>
+    <mergeCell ref="I151:J153"/>
+    <mergeCell ref="I147:J147"/>
+    <mergeCell ref="K147:L147"/>
+    <mergeCell ref="I148:J148"/>
+    <mergeCell ref="K148:L148"/>
+    <mergeCell ref="I149:J149"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="K177:L177"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="M177:N177"/>
+    <mergeCell ref="K173:L173"/>
+    <mergeCell ref="I174:J174"/>
+    <mergeCell ref="K174:L174"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="I170:J170"/>
+    <mergeCell ref="K170:L170"/>
+    <mergeCell ref="I171:J171"/>
+    <mergeCell ref="K171:L171"/>
+    <mergeCell ref="I172:J172"/>
+    <mergeCell ref="K172:L172"/>
+    <mergeCell ref="I168:J168"/>
+    <mergeCell ref="K168:L168"/>
+    <mergeCell ref="I169:J169"/>
+    <mergeCell ref="I161:J161"/>
+    <mergeCell ref="K161:L161"/>
+    <mergeCell ref="K169:L169"/>
+    <mergeCell ref="I165:J165"/>
+    <mergeCell ref="K165:L165"/>
+    <mergeCell ref="I166:J166"/>
+    <mergeCell ref="K166:L166"/>
+    <mergeCell ref="I167:J167"/>
+    <mergeCell ref="K167:L167"/>
+    <mergeCell ref="I162:J162"/>
+    <mergeCell ref="K162:L162"/>
+    <mergeCell ref="I163:J163"/>
+    <mergeCell ref="K163:L163"/>
+    <mergeCell ref="I164:J164"/>
+    <mergeCell ref="K164:L164"/>
+    <mergeCell ref="B167:C167"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="I142:J144"/>
+    <mergeCell ref="K142:L144"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="E166:F166"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="G165:H165"/>
+    <mergeCell ref="G166:H166"/>
+    <mergeCell ref="A164:A171"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="G164:H164"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A44:B46"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="D44:E46"/>
+    <mergeCell ref="F44:G46"/>
+    <mergeCell ref="A47:O47"/>
+    <mergeCell ref="H44:H46"/>
+    <mergeCell ref="I44:J46"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="E184:F184"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="B173:C173"/>
+    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="E183:F183"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="B178:C178"/>
+    <mergeCell ref="A181:M181"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="C183:D183"/>
+    <mergeCell ref="A172:A179"/>
+    <mergeCell ref="I178:J178"/>
+    <mergeCell ref="K178:L178"/>
+    <mergeCell ref="I173:J173"/>
+    <mergeCell ref="G173:H173"/>
+    <mergeCell ref="I179:J179"/>
+    <mergeCell ref="K179:L179"/>
+    <mergeCell ref="I176:J176"/>
+    <mergeCell ref="K176:L176"/>
+    <mergeCell ref="I177:J177"/>
+    <mergeCell ref="G161:H161"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="G167:H167"/>
+    <mergeCell ref="G168:H168"/>
+    <mergeCell ref="O48:O59"/>
+    <mergeCell ref="N44:N46"/>
+    <mergeCell ref="O44:O46"/>
+    <mergeCell ref="B171:C171"/>
+    <mergeCell ref="E178:F178"/>
+    <mergeCell ref="G178:H178"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="B160:C160"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="B157:C157"/>
+    <mergeCell ref="B158:C158"/>
+    <mergeCell ref="G176:H176"/>
+    <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="E176:F176"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B149:C149"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="E161:F161"/>
+    <mergeCell ref="E159:F159"/>
+    <mergeCell ref="G162:H162"/>
+    <mergeCell ref="E163:F163"/>
+    <mergeCell ref="G163:H163"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="G159:H159"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="G160:H160"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G146:H146"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="E151:F153"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="E169:F169"/>
+    <mergeCell ref="E168:F168"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="E165:F165"/>
+    <mergeCell ref="B165:C165"/>
+    <mergeCell ref="B164:C164"/>
+    <mergeCell ref="E162:F162"/>
+    <mergeCell ref="B161:C161"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="E160:F160"/>
+    <mergeCell ref="B159:C159"/>
+    <mergeCell ref="E156:F156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="G177:H177"/>
+    <mergeCell ref="E170:F170"/>
+    <mergeCell ref="G170:H170"/>
+    <mergeCell ref="B142:C144"/>
+    <mergeCell ref="B145:C145"/>
+    <mergeCell ref="B146:C146"/>
+    <mergeCell ref="B147:C147"/>
+    <mergeCell ref="B148:C148"/>
+    <mergeCell ref="G174:H174"/>
+    <mergeCell ref="G172:H172"/>
+    <mergeCell ref="E145:F145"/>
+    <mergeCell ref="E146:F146"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="G151:H153"/>
+    <mergeCell ref="G156:H156"/>
+    <mergeCell ref="G157:H157"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="G154:H154"/>
+    <mergeCell ref="G142:H144"/>
+    <mergeCell ref="B150:C150"/>
+    <mergeCell ref="E149:F149"/>
+    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="G155:H155"/>
     <mergeCell ref="E187:F187"/>
     <mergeCell ref="G187:H187"/>
     <mergeCell ref="A188:B188"/>
@@ -9325,563 +9894,6 @@
     <mergeCell ref="E155:F155"/>
     <mergeCell ref="E164:F164"/>
     <mergeCell ref="E177:F177"/>
-    <mergeCell ref="G177:H177"/>
-    <mergeCell ref="E170:F170"/>
-    <mergeCell ref="G170:H170"/>
-    <mergeCell ref="B142:C144"/>
-    <mergeCell ref="B145:C145"/>
-    <mergeCell ref="B146:C146"/>
-    <mergeCell ref="B147:C147"/>
-    <mergeCell ref="B148:C148"/>
-    <mergeCell ref="G174:H174"/>
-    <mergeCell ref="G172:H172"/>
-    <mergeCell ref="E145:F145"/>
-    <mergeCell ref="E146:F146"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="G149:H149"/>
-    <mergeCell ref="G151:H153"/>
-    <mergeCell ref="G156:H156"/>
-    <mergeCell ref="G157:H157"/>
-    <mergeCell ref="G158:H158"/>
-    <mergeCell ref="G154:H154"/>
-    <mergeCell ref="G142:H144"/>
-    <mergeCell ref="B150:C150"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
-    <mergeCell ref="G155:H155"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="G150:H150"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="E151:F153"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="E169:F169"/>
-    <mergeCell ref="E168:F168"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="E165:F165"/>
-    <mergeCell ref="B165:C165"/>
-    <mergeCell ref="B164:C164"/>
-    <mergeCell ref="E162:F162"/>
-    <mergeCell ref="B161:C161"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="E160:F160"/>
-    <mergeCell ref="B159:C159"/>
-    <mergeCell ref="E156:F156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="E158:F158"/>
-    <mergeCell ref="B163:C163"/>
-    <mergeCell ref="B160:C160"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="B157:C157"/>
-    <mergeCell ref="B158:C158"/>
-    <mergeCell ref="G176:H176"/>
-    <mergeCell ref="B168:C168"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="E176:F176"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B149:C149"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="E161:F161"/>
-    <mergeCell ref="E159:F159"/>
-    <mergeCell ref="G162:H162"/>
-    <mergeCell ref="E163:F163"/>
-    <mergeCell ref="G163:H163"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A131:A138"/>
-    <mergeCell ref="G159:H159"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="G160:H160"/>
-    <mergeCell ref="G161:H161"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="G167:H167"/>
-    <mergeCell ref="G168:H168"/>
-    <mergeCell ref="O48:O59"/>
-    <mergeCell ref="N44:N46"/>
-    <mergeCell ref="O44:O46"/>
-    <mergeCell ref="B171:C171"/>
-    <mergeCell ref="E178:F178"/>
-    <mergeCell ref="G178:H178"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="B173:C173"/>
-    <mergeCell ref="E173:F173"/>
-    <mergeCell ref="E183:F183"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="E175:F175"/>
-    <mergeCell ref="B178:C178"/>
-    <mergeCell ref="A181:M181"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="C183:D183"/>
-    <mergeCell ref="A172:A179"/>
-    <mergeCell ref="I178:J178"/>
-    <mergeCell ref="K178:L178"/>
-    <mergeCell ref="I173:J173"/>
-    <mergeCell ref="G173:H173"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A44:B46"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="D44:E46"/>
-    <mergeCell ref="F44:G46"/>
-    <mergeCell ref="A47:O47"/>
-    <mergeCell ref="H44:H46"/>
-    <mergeCell ref="B167:C167"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="I142:J144"/>
-    <mergeCell ref="K142:L144"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="E166:F166"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="G165:H165"/>
-    <mergeCell ref="G166:H166"/>
-    <mergeCell ref="A164:A171"/>
-    <mergeCell ref="B166:C166"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="G164:H164"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="K169:L169"/>
-    <mergeCell ref="I165:J165"/>
-    <mergeCell ref="K165:L165"/>
-    <mergeCell ref="I166:J166"/>
-    <mergeCell ref="K166:L166"/>
-    <mergeCell ref="I167:J167"/>
-    <mergeCell ref="K167:L167"/>
-    <mergeCell ref="I162:J162"/>
-    <mergeCell ref="K162:L162"/>
-    <mergeCell ref="I163:J163"/>
-    <mergeCell ref="K163:L163"/>
-    <mergeCell ref="I164:J164"/>
-    <mergeCell ref="K164:L164"/>
-    <mergeCell ref="I179:J179"/>
-    <mergeCell ref="K179:L179"/>
-    <mergeCell ref="I176:J176"/>
-    <mergeCell ref="K176:L176"/>
-    <mergeCell ref="I177:J177"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="K177:L177"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="M177:N177"/>
-    <mergeCell ref="K173:L173"/>
-    <mergeCell ref="I174:J174"/>
-    <mergeCell ref="K174:L174"/>
-    <mergeCell ref="I175:J175"/>
-    <mergeCell ref="K175:L175"/>
-    <mergeCell ref="I170:J170"/>
-    <mergeCell ref="K170:L170"/>
-    <mergeCell ref="I171:J171"/>
-    <mergeCell ref="K171:L171"/>
-    <mergeCell ref="I172:J172"/>
-    <mergeCell ref="K172:L172"/>
-    <mergeCell ref="I168:J168"/>
-    <mergeCell ref="K168:L168"/>
-    <mergeCell ref="I169:J169"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A140:O140"/>
-    <mergeCell ref="M155:N155"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="M149:N149"/>
-    <mergeCell ref="M150:N150"/>
-    <mergeCell ref="M154:N154"/>
-    <mergeCell ref="K150:L150"/>
-    <mergeCell ref="I154:J154"/>
-    <mergeCell ref="K154:L154"/>
-    <mergeCell ref="I155:J155"/>
-    <mergeCell ref="K155:L155"/>
-    <mergeCell ref="K151:L153"/>
-    <mergeCell ref="I151:J153"/>
-    <mergeCell ref="I147:J147"/>
-    <mergeCell ref="K147:L147"/>
-    <mergeCell ref="I148:J148"/>
-    <mergeCell ref="K148:L148"/>
-    <mergeCell ref="I149:J149"/>
-    <mergeCell ref="O142:O144"/>
-    <mergeCell ref="M142:N144"/>
-    <mergeCell ref="M145:N145"/>
-    <mergeCell ref="M146:N146"/>
-    <mergeCell ref="M176:N176"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="M167:N167"/>
-    <mergeCell ref="M159:N159"/>
-    <mergeCell ref="M156:N156"/>
-    <mergeCell ref="M157:N157"/>
-    <mergeCell ref="O154:O179"/>
-    <mergeCell ref="M178:N178"/>
-    <mergeCell ref="M179:N179"/>
-    <mergeCell ref="M173:N173"/>
-    <mergeCell ref="M174:N174"/>
-    <mergeCell ref="M169:N169"/>
-    <mergeCell ref="M170:N170"/>
-    <mergeCell ref="M171:N171"/>
-    <mergeCell ref="M172:N172"/>
-    <mergeCell ref="M175:N175"/>
-    <mergeCell ref="M168:N168"/>
-    <mergeCell ref="I44:J46"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="M160:N160"/>
-    <mergeCell ref="I159:J159"/>
-    <mergeCell ref="K159:L159"/>
-    <mergeCell ref="I160:J160"/>
-    <mergeCell ref="K160:L160"/>
-    <mergeCell ref="I161:J161"/>
-    <mergeCell ref="K161:L161"/>
-    <mergeCell ref="I156:J156"/>
-    <mergeCell ref="K156:L156"/>
-    <mergeCell ref="I157:J157"/>
-    <mergeCell ref="K157:L157"/>
-    <mergeCell ref="I158:J158"/>
-    <mergeCell ref="K158:L158"/>
-    <mergeCell ref="K149:L149"/>
-    <mergeCell ref="M158:N158"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="M148:N148"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I145:J145"/>
-    <mergeCell ref="K145:L145"/>
-    <mergeCell ref="I146:J146"/>
-    <mergeCell ref="K146:L146"/>
-    <mergeCell ref="A73:O73"/>
-    <mergeCell ref="O78:O80"/>
-    <mergeCell ref="O74:O77"/>
-    <mergeCell ref="A78:B80"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="A106:A113"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A18:O18"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A30:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D30:E32"/>
-    <mergeCell ref="F30:M31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="A60:O60"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="M44:M46"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K44:L46"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="O61:O72"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="K81:L81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="K83:L83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="K84:L84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="K85:L85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="K86:L86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="K87:L87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="K88:L88"/>
-    <mergeCell ref="O90:O101"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="K91:L91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="K101:L101"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="K94:L94"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="F99:G99"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="K99:L99"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="K97:L97"/>
-    <mergeCell ref="K96:L96"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="K98:L98"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="D78:E80"/>
-    <mergeCell ref="F78:G80"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="I78:J80"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="K92:L92"/>
-    <mergeCell ref="K93:L93"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="K90:L90"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="K95:L95"/>
-    <mergeCell ref="K78:L80"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="O81:O88"/>
-    <mergeCell ref="A89:O89"/>
-    <mergeCell ref="A151:A153"/>
-    <mergeCell ref="B151:C153"/>
-    <mergeCell ref="D151:D153"/>
-    <mergeCell ref="M147:N147"/>
-    <mergeCell ref="K100:L100"/>
-    <mergeCell ref="I150:J150"/>
-    <mergeCell ref="O151:O153"/>
-    <mergeCell ref="A145:A150"/>
-    <mergeCell ref="O145:O150"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="F100:G100"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="M151:N153"/>
-    <mergeCell ref="M78:M80"/>
-    <mergeCell ref="N78:N80"/>
-    <mergeCell ref="I106:I113"/>
-    <mergeCell ref="I115:I138"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="D98:E98"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.19685039370078741" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.31496062992125984"/>
